--- a/notebooks/Questions_2024-05-31.xlsx
+++ b/notebooks/Questions_2024-05-31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABMI_Official\RCDST_Jupyter_webapp_Official\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE4615-1C3E-4BF0-BC07-7924B9FBAF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBC7BCC-B8D2-4EC7-9B7F-2ADFE36FE604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="825" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="899">
   <si>
     <t>Camera spacing</t>
   </si>
@@ -2792,6 +2792,15 @@
   </si>
   <si>
     <t>if objective=="obj_divers_rich"</t>
+  </si>
+  <si>
+    <t>{
+    "objective": [
+        "obj_divers_rich",
+        "obj_rel_abund",
+        "obj_behaviour"
+    ]
+}</t>
   </si>
 </sst>
 </file>
@@ -11070,8 +11079,8 @@
   <dimension ref="A1:AE63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -11736,7 +11745,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="78.75">
+    <row r="8" spans="1:31" ht="110.25">
       <c r="A8" s="64" t="s">
         <v>345</v>
       </c>
@@ -11763,7 +11772,7 @@
       </c>
       <c r="J8" s="146"/>
       <c r="K8" s="67" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="L8" s="65" t="s">
         <v>844</v>

--- a/notebooks/Questions_2024-05-31.xlsx
+++ b/notebooks/Questions_2024-05-31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABMI_Official\RCDST_Jupyter_webapp_Official\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBC7BCC-B8D2-4EC7-9B7F-2ADFE36FE604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11222AF6-15FF-408A-90BD-9AC6F7F20FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="825" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'field_code-approach'!$A$1:$B$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">info_boxes!$A$1:$G$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">legend!$A$1:$D$85</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">questions!$A$1:$AE$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">questions!$A$1:$AF$63</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="908">
   <si>
     <t>Camera spacing</t>
   </si>
@@ -2791,14 +2791,102 @@
     <t>if objective == "obj_divers_rich" or objective == "obj_rel_abund" or objective == "obj_behaviour"</t>
   </si>
   <si>
-    <t>if objective=="obj_divers_rich"</t>
-  </si>
-  <si>
     <t>{
     "objective": [
         "obj_divers_rich",
         "obj_rel_abund",
         "obj_behaviour"
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "objective": [
+        "obj_divers_rich"
+    ]
+}</t>
+  </si>
+  <si>
+    <t>json_logic</t>
+  </si>
+  <si>
+    <t>if objective == "obj_divers_rich"</t>
+  </si>
+  <si>
+    <t>{
+    "obj_targ_sp": [
+        "single"
+    ],
+    "objective": [
+        "obj_inventory"
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "obj_targ_sp": [
+        "single"
+    ],
+    "objective": [
+        "obj_inventory",
+        "obj_density"
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "obj_targ_sp": [
+        "single"
+    ],
+    "objective": [
+        "obj_occupancy", 
+        "obj_rel_abund", 
+        "obj_density", 
+        "obj_behaviour"
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "obj_targ_sp": [
+        "single"
+    ],
+    "objective": [
+        "obj_divers_rich"
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "obj_targ_sp": [
+        "single"
+    ],
+    "objective": [
+        "obj_occupancy", 
+        "obj_rel_abund", 
+        "obj_density"
+    ],
+    "sp_type": [
+         "ungulate"
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "obj_targ_sp": [
+        "single"
+    ],
+    "objective": [
+        "obj_occupancy", 
+        "obj_inventory", 
+        "obj_density"
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "objective": [
+        "obj_inventory"
     ]
 }</t>
   </si>
@@ -11076,11 +11164,11 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FFFBE4D5"/>
   </sheetPr>
-  <dimension ref="A1:AE63"/>
+  <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -11095,22 +11183,22 @@
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="118" customWidth="1"/>
     <col min="10" max="10" width="24.5703125" style="118" customWidth="1"/>
-    <col min="11" max="11" width="47.28515625" style="119" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" style="126" customWidth="1"/>
-    <col min="14" max="14" width="40.140625" style="92" customWidth="1"/>
-    <col min="15" max="15" width="48.28515625" style="92" customWidth="1"/>
-    <col min="16" max="16" width="47" style="92" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="23.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="24.42578125" customWidth="1"/>
-    <col min="22" max="22" width="61" customWidth="1"/>
-    <col min="31" max="31" width="3.140625" customWidth="1"/>
+    <col min="11" max="12" width="47.28515625" style="119" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="126" customWidth="1"/>
+    <col min="15" max="15" width="40.140625" style="92" customWidth="1"/>
+    <col min="16" max="16" width="48.28515625" style="92" customWidth="1"/>
+    <col min="17" max="17" width="47" style="92" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" customWidth="1"/>
+    <col min="23" max="23" width="61" customWidth="1"/>
+    <col min="32" max="32" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="31.5">
+    <row r="1" spans="1:32" ht="31.5">
       <c r="A1" s="64" t="s">
         <v>345</v>
       </c>
@@ -11144,68 +11232,71 @@
       <c r="K1" s="61" t="s">
         <v>824</v>
       </c>
-      <c r="L1" s="145" t="s">
+      <c r="L1" s="61" t="s">
+        <v>899</v>
+      </c>
+      <c r="M1" s="145" t="s">
         <v>839</v>
       </c>
-      <c r="M1" s="107" t="s">
+      <c r="N1" s="107" t="s">
         <v>817</v>
       </c>
-      <c r="N1" s="108" t="s">
+      <c r="O1" s="108" t="s">
         <v>818</v>
       </c>
-      <c r="O1" s="107" t="s">
+      <c r="P1" s="107" t="s">
         <v>821</v>
       </c>
-      <c r="P1" s="107" t="s">
+      <c r="Q1" s="107" t="s">
         <v>820</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="R1" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="S1" s="62" t="s">
         <v>343</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="T1" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="U1" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="V1" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="V1" s="63" t="s">
+      <c r="W1" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="W1" s="133" t="s">
+      <c r="X1" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="134" t="s">
+      <c r="Y1" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="133" t="s">
+      <c r="Z1" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="133" t="s">
+      <c r="AA1" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="133" t="s">
+      <c r="AB1" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="AB1" s="133" t="s">
+      <c r="AC1" s="133" t="s">
         <v>132</v>
       </c>
-      <c r="AC1" s="133" t="s">
+      <c r="AD1" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" s="133" t="s">
+      <c r="AE1" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="AE1" s="64" t="s">
+      <c r="AF1" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="47.25" hidden="1">
+    <row r="2" spans="1:32" ht="47.25" hidden="1">
       <c r="A2" s="64" t="s">
         <v>345</v>
       </c>
@@ -11236,30 +11327,28 @@
       <c r="K2" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M2" s="123" t="s">
+      <c r="N2" s="123" t="s">
         <v>346</v>
       </c>
-      <c r="N2" s="109" t="s">
+      <c r="O2" s="109" t="s">
         <v>347</v>
       </c>
-      <c r="O2" s="109" t="s">
+      <c r="P2" s="109" t="s">
         <v>349</v>
       </c>
-      <c r="P2" s="109" t="s">
+      <c r="Q2" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="106"/>
+      <c r="R2" s="120"/>
       <c r="S2" s="106"/>
       <c r="T2" s="106"/>
       <c r="U2" s="106"/>
-      <c r="V2" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="116" t="s">
+      <c r="V2" s="106"/>
+      <c r="W2" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X2" s="116" t="s">
@@ -11283,11 +11372,14 @@
       <c r="AD2" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="64" t="s">
+      <c r="AE2" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF2" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="63">
+    <row r="3" spans="1:32" ht="63">
       <c r="A3" s="64" t="s">
         <v>345</v>
       </c>
@@ -11318,42 +11410,42 @@
       <c r="K3" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="M3" s="123" t="s">
+      <c r="M3" s="65" t="s">
+        <v>844</v>
+      </c>
+      <c r="N3" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="109" t="s">
+      <c r="O3" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="O3" s="109" t="s">
+      <c r="P3" s="109" t="s">
         <v>352</v>
       </c>
-      <c r="P3" s="109" t="s">
+      <c r="Q3" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="Q3" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="67" t="b">
+      <c r="R3" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S3" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="67" t="b">
+      <c r="T3" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U3" s="67" t="s">
+      <c r="V3" s="67" t="s">
         <v>354</v>
       </c>
-      <c r="V3" s="65" t="s">
+      <c r="W3" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="W3" s="116" t="s">
-        <v>22</v>
-      </c>
       <c r="X3" s="116" t="s">
         <v>22</v>
       </c>
@@ -11375,11 +11467,14 @@
       <c r="AD3" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="64" t="s">
+      <c r="AE3" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF3" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="31.5">
+    <row r="4" spans="1:32" ht="31.5">
       <c r="A4" s="64" t="s">
         <v>345</v>
       </c>
@@ -11410,40 +11505,40 @@
       <c r="K4" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="M4" s="123" t="s">
+      <c r="M4" s="65" t="s">
+        <v>844</v>
+      </c>
+      <c r="N4" s="123" t="s">
         <v>356</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="O4" s="110" t="s">
         <v>893</v>
       </c>
-      <c r="O4" s="109" t="s">
+      <c r="P4" s="109" t="s">
         <v>358</v>
       </c>
-      <c r="P4" s="109" t="s">
+      <c r="Q4" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="R4" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="R4" s="67" t="b">
+      <c r="S4" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S4" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="67" t="b">
+      <c r="T4" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U4" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V4" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="116" t="s">
+      <c r="W4" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X4" s="116" t="s">
@@ -11467,11 +11562,14 @@
       <c r="AD4" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE4" s="64" t="s">
+      <c r="AE4" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF4" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="105">
+    <row r="5" spans="1:32" ht="105">
       <c r="A5" s="64" t="s">
         <v>345</v>
       </c>
@@ -11504,40 +11602,40 @@
       <c r="K5" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="M5" s="123" t="s">
+      <c r="M5" s="65" t="s">
+        <v>844</v>
+      </c>
+      <c r="N5" s="123" t="s">
         <v>361</v>
       </c>
-      <c r="N5" s="151" t="s">
+      <c r="O5" s="151" t="s">
         <v>892</v>
-      </c>
-      <c r="O5" s="109" t="s">
-        <v>69</v>
       </c>
       <c r="P5" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="65" t="s">
+      <c r="Q5" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" s="65" t="s">
         <v>363</v>
       </c>
-      <c r="R5" s="67" t="b">
+      <c r="S5" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S5" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="67" t="b">
+      <c r="T5" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U5" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V5" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="116" t="s">
+      <c r="W5" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X5" s="116" t="s">
@@ -11561,11 +11659,14 @@
       <c r="AD5" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE5" s="64" t="s">
+      <c r="AE5" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF5" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="31.5" hidden="1">
+    <row r="6" spans="1:32" ht="110.25" hidden="1">
       <c r="A6" s="64" t="s">
         <v>345</v>
       </c>
@@ -11594,40 +11695,40 @@
       <c r="K6" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="67" t="s">
+        <v>897</v>
+      </c>
+      <c r="M6" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M6" s="123" t="s">
+      <c r="N6" s="123" t="s">
         <v>365</v>
       </c>
-      <c r="N6" s="109" t="s">
+      <c r="O6" s="109" t="s">
         <v>366</v>
       </c>
-      <c r="O6" s="109" t="s">
+      <c r="P6" s="109" t="s">
         <v>358</v>
       </c>
-      <c r="P6" s="109" t="s">
+      <c r="Q6" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="Q6" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="67" t="b">
+      <c r="R6" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S6" s="67" t="s">
+      <c r="T6" s="67" t="s">
         <v>367</v>
       </c>
-      <c r="T6" s="67" t="b">
+      <c r="U6" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U6" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V6" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="116" t="s">
+      <c r="W6" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X6" s="116" t="s">
@@ -11651,11 +11752,14 @@
       <c r="AD6" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE6" s="64" t="s">
+      <c r="AE6" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF6" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="31.5" hidden="1">
+    <row r="7" spans="1:32" ht="31.5" hidden="1">
       <c r="A7" s="64" t="s">
         <v>345</v>
       </c>
@@ -11684,40 +11788,38 @@
       <c r="K7" s="67" t="s">
         <v>827</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="L7" s="67"/>
+      <c r="M7" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M7" s="123" t="s">
+      <c r="N7" s="123" t="s">
         <v>368</v>
       </c>
-      <c r="N7" s="109" t="s">
+      <c r="O7" s="109" t="s">
         <v>369</v>
       </c>
-      <c r="O7" s="109" t="s">
+      <c r="P7" s="109" t="s">
         <v>358</v>
       </c>
-      <c r="P7" s="109" t="s">
+      <c r="Q7" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="Q7" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="67" t="b">
+      <c r="R7" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S7" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T7" s="67" t="b">
+      <c r="T7" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U7" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="133" t="s">
+      <c r="W7" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X7" s="133" t="s">
@@ -11729,23 +11831,26 @@
       <c r="Z7" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AA7" s="133" t="b">
+      <c r="AA7" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB7" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AB7" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="AC7" s="133" t="s">
         <v>22</v>
       </c>
       <c r="AD7" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="64" t="s">
+      <c r="AE7" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF7" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="110.25">
+    <row r="8" spans="1:32" ht="110.25">
       <c r="A8" s="64" t="s">
         <v>345</v>
       </c>
@@ -11772,50 +11877,50 @@
       </c>
       <c r="J8" s="146"/>
       <c r="K8" s="67" t="s">
-        <v>898</v>
-      </c>
-      <c r="L8" s="65" t="s">
+        <v>896</v>
+      </c>
+      <c r="L8" s="67" t="s">
+        <v>897</v>
+      </c>
+      <c r="M8" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M8" s="123" t="s">
+      <c r="N8" s="123" t="s">
         <v>370</v>
       </c>
-      <c r="N8" s="110" t="s">
+      <c r="O8" s="110" t="s">
         <v>371</v>
       </c>
-      <c r="O8" s="109" t="s">
+      <c r="P8" s="109" t="s">
         <v>358</v>
       </c>
-      <c r="P8" s="109" t="s">
+      <c r="Q8" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="Q8" s="65" t="s">
+      <c r="R8" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="R8" s="67" t="b">
+      <c r="S8" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S8" s="67" t="s">
+      <c r="T8" s="67" t="s">
         <v>373</v>
       </c>
-      <c r="T8" s="67" t="b">
+      <c r="U8" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U8" s="67" t="s">
+      <c r="V8" s="67" t="s">
         <v>374</v>
       </c>
-      <c r="V8" s="67" t="s">
+      <c r="W8" s="67" t="s">
         <v>375</v>
       </c>
-      <c r="W8" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="X8" s="133" t="b">
+      <c r="X8" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="Y8" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="Z8" s="133" t="s">
         <v>22</v>
       </c>
@@ -11825,17 +11930,20 @@
       <c r="AB8" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AC8" s="133" t="b">
-        <v>1</v>
+      <c r="AC8" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="AD8" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AE8" s="64" t="s">
+      <c r="AE8" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="105">
+    <row r="9" spans="1:32" ht="110.25">
       <c r="A9" s="64" t="s">
         <v>345</v>
       </c>
@@ -11866,48 +11974,48 @@
       <c r="K9" s="67" t="s">
         <v>896</v>
       </c>
-      <c r="L9" s="65" t="s">
+      <c r="L9" s="67" t="s">
+        <v>897</v>
+      </c>
+      <c r="M9" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M9" s="123" t="s">
+      <c r="N9" s="123" t="s">
         <v>376</v>
       </c>
-      <c r="N9" s="151" t="s">
+      <c r="O9" s="151" t="s">
         <v>377</v>
-      </c>
-      <c r="O9" s="109" t="s">
-        <v>69</v>
       </c>
       <c r="P9" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="Q9" s="65" t="s">
+      <c r="Q9" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="R9" s="65" t="s">
         <v>378</v>
       </c>
-      <c r="R9" s="67" t="b">
+      <c r="S9" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S9" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T9" s="67" t="b">
+      <c r="T9" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U9" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V9" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W9" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="X9" s="133" t="b">
+      <c r="W9" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="X9" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="Y9" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="Z9" s="133" t="s">
         <v>22</v>
       </c>
@@ -11917,17 +12025,20 @@
       <c r="AB9" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AC9" s="133" t="b">
-        <v>1</v>
+      <c r="AC9" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="AD9" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AE9" s="64" t="s">
+      <c r="AE9" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="31.5" hidden="1">
+    <row r="10" spans="1:32" ht="31.5" hidden="1">
       <c r="A10" s="64" t="s">
         <v>345</v>
       </c>
@@ -11956,40 +12067,38 @@
       <c r="K10" s="67" t="s">
         <v>827</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="67"/>
+      <c r="M10" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M10" s="123" t="s">
+      <c r="N10" s="123" t="s">
         <v>379</v>
       </c>
-      <c r="N10" s="109" t="s">
+      <c r="O10" s="109" t="s">
         <v>380</v>
       </c>
-      <c r="O10" s="109" t="s">
+      <c r="P10" s="109" t="s">
         <v>358</v>
       </c>
-      <c r="P10" s="109" t="s">
+      <c r="Q10" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="Q10" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" s="67" t="b">
+      <c r="R10" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S10" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T10" s="67" t="b">
+      <c r="T10" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U10" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V10" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W10" s="133" t="s">
+      <c r="W10" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X10" s="133" t="s">
@@ -11998,8 +12107,8 @@
       <c r="Y10" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Z10" s="133" t="b">
-        <v>1</v>
+      <c r="Z10" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="AA10" s="133" t="b">
         <v>1</v>
@@ -12007,17 +12116,20 @@
       <c r="AB10" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AC10" s="133" t="s">
-        <v>22</v>
+      <c r="AC10" s="133" t="b">
+        <v>1</v>
       </c>
       <c r="AD10" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE10" s="64" t="s">
+      <c r="AE10" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF10" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="47.25">
+    <row r="11" spans="1:32" ht="47.25">
       <c r="A11" s="64" t="s">
         <v>345</v>
       </c>
@@ -12046,40 +12158,40 @@
       <c r="K11" s="127" t="s">
         <v>844</v>
       </c>
-      <c r="L11" s="128" t="s">
+      <c r="L11" s="127" t="s">
         <v>844</v>
       </c>
-      <c r="M11" s="129" t="s">
+      <c r="M11" s="128" t="s">
+        <v>844</v>
+      </c>
+      <c r="N11" s="129" t="s">
         <v>883</v>
       </c>
-      <c r="N11" s="139" t="s">
+      <c r="O11" s="139" t="s">
         <v>881</v>
       </c>
-      <c r="O11" s="127" t="s">
+      <c r="P11" s="127" t="s">
         <v>884</v>
       </c>
-      <c r="P11" s="127" t="s">
+      <c r="Q11" s="127" t="s">
         <v>359</v>
       </c>
-      <c r="Q11" s="128" t="s">
+      <c r="R11" s="128" t="s">
         <v>382</v>
       </c>
-      <c r="R11" s="127" t="b">
+      <c r="S11" s="127" t="b">
         <v>0</v>
       </c>
-      <c r="S11" s="130" t="s">
-        <v>22</v>
-      </c>
-      <c r="T11" s="127" t="b">
+      <c r="T11" s="130" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="127" t="b">
         <v>0</v>
       </c>
-      <c r="U11" s="127" t="s">
-        <v>22</v>
-      </c>
-      <c r="V11" s="127"/>
-      <c r="W11" s="138" t="s">
-        <v>22</v>
-      </c>
+      <c r="V11" s="127" t="s">
+        <v>22</v>
+      </c>
+      <c r="W11" s="127"/>
       <c r="X11" s="138" t="s">
         <v>22</v>
       </c>
@@ -12101,11 +12213,14 @@
       <c r="AD11" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="AE11" s="64" t="s">
+      <c r="AE11" s="138" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF11" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="47.25">
+    <row r="12" spans="1:32" ht="47.25">
       <c r="A12" s="64" t="s">
         <v>345</v>
       </c>
@@ -12134,40 +12249,40 @@
       <c r="K12" s="127" t="s">
         <v>844</v>
       </c>
-      <c r="L12" s="128" t="s">
+      <c r="L12" s="127" t="s">
         <v>844</v>
       </c>
-      <c r="M12" s="129" t="s">
+      <c r="M12" s="128" t="s">
+        <v>844</v>
+      </c>
+      <c r="N12" s="129" t="s">
         <v>385</v>
       </c>
-      <c r="N12" s="139" t="s">
+      <c r="O12" s="139" t="s">
         <v>882</v>
       </c>
-      <c r="O12" s="127" t="s">
+      <c r="P12" s="127" t="s">
         <v>884</v>
       </c>
-      <c r="P12" s="127" t="s">
+      <c r="Q12" s="127" t="s">
         <v>359</v>
       </c>
-      <c r="Q12" s="128" t="s">
+      <c r="R12" s="128" t="s">
         <v>384</v>
       </c>
-      <c r="R12" s="127" t="b">
+      <c r="S12" s="127" t="b">
         <v>0</v>
       </c>
-      <c r="S12" s="130" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="127" t="b">
+      <c r="T12" s="130" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="127" t="b">
         <v>0</v>
       </c>
-      <c r="U12" s="127" t="s">
-        <v>22</v>
-      </c>
       <c r="V12" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="W12" s="138" t="s">
+      <c r="W12" s="127" t="s">
         <v>22</v>
       </c>
       <c r="X12" s="138" t="s">
@@ -12191,11 +12306,14 @@
       <c r="AD12" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="AE12" s="64" t="s">
+      <c r="AE12" s="138" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF12" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="31.5" hidden="1">
+    <row r="13" spans="1:32" ht="78.75" hidden="1">
       <c r="A13" s="64" t="s">
         <v>345</v>
       </c>
@@ -12226,40 +12344,40 @@
       <c r="K13" s="67" t="s">
         <v>828</v>
       </c>
-      <c r="L13" s="65" t="s">
+      <c r="L13" s="67" t="s">
+        <v>898</v>
+      </c>
+      <c r="M13" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M13" s="123" t="s">
+      <c r="N13" s="123" t="s">
         <v>386</v>
       </c>
-      <c r="N13" s="109" t="s">
+      <c r="O13" s="109" t="s">
         <v>387</v>
-      </c>
-      <c r="O13" s="109" t="s">
-        <v>69</v>
       </c>
       <c r="P13" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="Q13" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="67" t="b">
+      <c r="Q13" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S13" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T13" s="67" t="b">
+      <c r="T13" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U13" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="V13" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="W13" s="116" t="s">
+      <c r="V13" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="W13" s="69" t="s">
         <v>22</v>
       </c>
       <c r="X13" s="116" t="s">
@@ -12283,11 +12401,14 @@
       <c r="AD13" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE13" s="64" t="s">
+      <c r="AE13" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF13" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="47.25">
+    <row r="14" spans="1:32" ht="78.75">
       <c r="A14" s="64" t="s">
         <v>345</v>
       </c>
@@ -12314,50 +12435,50 @@
       </c>
       <c r="J14" s="146"/>
       <c r="K14" s="67" t="s">
-        <v>897</v>
-      </c>
-      <c r="L14" s="65" t="s">
+        <v>900</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>898</v>
+      </c>
+      <c r="M14" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M14" s="123" t="s">
+      <c r="N14" s="123" t="s">
         <v>388</v>
       </c>
-      <c r="N14" s="109" t="s">
+      <c r="O14" s="109" t="s">
         <v>389</v>
       </c>
-      <c r="O14" s="109" t="s">
+      <c r="P14" s="109" t="s">
         <v>390</v>
       </c>
-      <c r="P14" s="109" t="s">
+      <c r="Q14" s="109" t="s">
         <v>391</v>
       </c>
-      <c r="Q14" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" s="67" t="b">
+      <c r="R14" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S14" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T14" s="67" t="b">
+      <c r="T14" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U14" s="67" t="s">
+      <c r="V14" s="67" t="s">
         <v>392</v>
       </c>
-      <c r="V14" s="71" t="s">
+      <c r="W14" s="71" t="s">
         <v>393</v>
       </c>
-      <c r="W14" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="X14" s="133" t="b">
+      <c r="X14" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="Y14" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="Z14" s="133" t="s">
         <v>22</v>
       </c>
@@ -12373,11 +12494,14 @@
       <c r="AD14" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE14" s="64" t="s">
+      <c r="AE14" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF14" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="132" customFormat="1" ht="31.5" hidden="1">
+    <row r="15" spans="1:32" s="132" customFormat="1" ht="31.5" hidden="1">
       <c r="A15" s="131" t="s">
         <v>345</v>
       </c>
@@ -12406,40 +12530,38 @@
       <c r="K15" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="L15" s="65" t="s">
+      <c r="L15" s="67"/>
+      <c r="M15" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M15" s="123" t="s">
+      <c r="N15" s="123" t="s">
         <v>394</v>
       </c>
-      <c r="N15" s="109" t="s">
+      <c r="O15" s="109" t="s">
         <v>395</v>
-      </c>
-      <c r="O15" s="109" t="s">
-        <v>69</v>
       </c>
       <c r="P15" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="67" t="b">
+      <c r="Q15" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="R15" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S15" s="67" t="s">
+      <c r="T15" s="67" t="s">
         <v>396</v>
       </c>
-      <c r="T15" s="67" t="b">
+      <c r="U15" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U15" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="V15" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="W15" s="116" t="s">
+      <c r="V15" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" s="69" t="s">
         <v>22</v>
       </c>
       <c r="X15" s="116" t="s">
@@ -12463,11 +12585,14 @@
       <c r="AD15" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE15" s="131" t="s">
+      <c r="AE15" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF15" s="131" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="132" customFormat="1" ht="31.5">
+    <row r="16" spans="1:32" s="132" customFormat="1" ht="31.5">
       <c r="A16" s="131" t="s">
         <v>345</v>
       </c>
@@ -12496,40 +12621,40 @@
       <c r="K16" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="L16" s="65" t="s">
+      <c r="L16" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="M16" s="123" t="s">
+      <c r="M16" s="65" t="s">
+        <v>844</v>
+      </c>
+      <c r="N16" s="123" t="s">
         <v>397</v>
       </c>
-      <c r="N16" s="109" t="s">
+      <c r="O16" s="109" t="s">
         <v>398</v>
       </c>
-      <c r="O16" s="109" t="s">
+      <c r="P16" s="109" t="s">
         <v>399</v>
       </c>
-      <c r="P16" s="109" t="s">
+      <c r="Q16" s="109" t="s">
         <v>400</v>
       </c>
-      <c r="Q16" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" s="67" t="b">
+      <c r="R16" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S16" s="67" t="s">
+      <c r="T16" s="67" t="s">
         <v>401</v>
       </c>
-      <c r="T16" s="67" t="b">
+      <c r="U16" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U16" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V16" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W16" s="133" t="s">
+      <c r="W16" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X16" s="133" t="s">
@@ -12553,11 +12678,14 @@
       <c r="AD16" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE16" s="131" t="s">
+      <c r="AE16" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF16" s="131" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="132" customFormat="1" ht="31.5">
+    <row r="17" spans="1:32" s="132" customFormat="1" ht="126">
       <c r="A17" s="131" t="s">
         <v>345</v>
       </c>
@@ -12586,42 +12714,42 @@
       <c r="K17" s="67" t="s">
         <v>838</v>
       </c>
-      <c r="L17" s="65" t="s">
+      <c r="L17" s="67" t="s">
+        <v>901</v>
+      </c>
+      <c r="M17" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M17" s="123" t="s">
+      <c r="N17" s="123" t="s">
         <v>402</v>
       </c>
-      <c r="N17" s="109" t="s">
+      <c r="O17" s="109" t="s">
         <v>403</v>
       </c>
-      <c r="O17" s="109" t="s">
+      <c r="P17" s="109" t="s">
         <v>404</v>
       </c>
-      <c r="P17" s="109" t="s">
+      <c r="Q17" s="109" t="s">
         <v>405</v>
       </c>
-      <c r="Q17" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" s="67" t="b">
+      <c r="R17" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S17" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T17" s="67" t="b">
+      <c r="T17" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U17" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V17" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="W17" s="67" t="s">
         <v>406</v>
       </c>
-      <c r="W17" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="X17" s="133" t="s">
         <v>22</v>
       </c>
@@ -12643,11 +12771,14 @@
       <c r="AD17" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE17" s="131" t="s">
+      <c r="AE17" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF17" s="131" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="132" customFormat="1" ht="47.25" hidden="1">
+    <row r="18" spans="1:32" s="132" customFormat="1" ht="47.25" hidden="1">
       <c r="A18" s="64" t="s">
         <v>345</v>
       </c>
@@ -12676,42 +12807,40 @@
       <c r="K18" s="67" t="s">
         <v>846</v>
       </c>
-      <c r="L18" s="65" t="s">
+      <c r="L18" s="67"/>
+      <c r="M18" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M18" s="123" t="s">
+      <c r="N18" s="123" t="s">
         <v>407</v>
       </c>
-      <c r="N18" s="109" t="s">
+      <c r="O18" s="109" t="s">
         <v>408</v>
       </c>
-      <c r="O18" s="109" t="s">
+      <c r="P18" s="109" t="s">
         <v>409</v>
       </c>
-      <c r="P18" s="109" t="s">
+      <c r="Q18" s="109" t="s">
         <v>410</v>
       </c>
-      <c r="Q18" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="67" t="b">
+      <c r="R18" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S18" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="67" t="b">
+      <c r="T18" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U18" s="67" t="s">
+      <c r="V18" s="67" t="s">
         <v>411</v>
       </c>
-      <c r="V18" s="67" t="s">
+      <c r="W18" s="67" t="s">
         <v>412</v>
       </c>
-      <c r="W18" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="X18" s="133" t="s">
         <v>22</v>
       </c>
@@ -12721,23 +12850,26 @@
       <c r="Z18" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AA18" s="133" t="b">
+      <c r="AA18" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB18" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AB18" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC18" s="133" t="b">
+      <c r="AC18" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD18" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AD18" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE18" s="131" t="s">
+      <c r="AE18" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF18" s="131" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="78.75" hidden="1">
+    <row r="19" spans="1:32" ht="78.75" hidden="1">
       <c r="A19" s="64" t="s">
         <v>345</v>
       </c>
@@ -12766,42 +12898,40 @@
       <c r="K19" s="72" t="s">
         <v>836</v>
       </c>
-      <c r="L19" s="65" t="s">
+      <c r="L19" s="72"/>
+      <c r="M19" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M19" s="124" t="s">
+      <c r="N19" s="124" t="s">
         <v>413</v>
       </c>
-      <c r="N19" s="111" t="s">
+      <c r="O19" s="111" t="s">
         <v>414</v>
       </c>
-      <c r="O19" s="111" t="s">
+      <c r="P19" s="111" t="s">
         <v>390</v>
       </c>
-      <c r="P19" s="111" t="s">
+      <c r="Q19" s="111" t="s">
         <v>391</v>
       </c>
-      <c r="Q19" s="121" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="67" t="b">
+      <c r="R19" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S19" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="T19" s="67" t="b">
+      <c r="T19" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U19" s="67" t="s">
+      <c r="V19" s="67" t="s">
         <v>415</v>
       </c>
-      <c r="V19" s="72" t="s">
+      <c r="W19" s="72" t="s">
         <v>416</v>
       </c>
-      <c r="W19" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="X19" s="133" t="s">
         <v>22</v>
       </c>
@@ -12811,23 +12941,26 @@
       <c r="Z19" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AA19" s="133" t="b">
+      <c r="AA19" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB19" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AB19" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC19" s="133" t="b">
+      <c r="AC19" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD19" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AD19" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE19" s="64" t="s">
+      <c r="AE19" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF19" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="47.25">
+    <row r="20" spans="1:32" ht="141.75">
       <c r="A20" s="64" t="s">
         <v>345</v>
       </c>
@@ -12856,68 +12989,71 @@
       <c r="K20" s="67" t="s">
         <v>840</v>
       </c>
-      <c r="L20" s="65" t="s">
+      <c r="L20" s="67" t="s">
+        <v>902</v>
+      </c>
+      <c r="M20" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M20" s="123" t="s">
+      <c r="N20" s="123" t="s">
         <v>417</v>
       </c>
-      <c r="N20" s="109" t="s">
+      <c r="O20" s="109" t="s">
         <v>418</v>
       </c>
-      <c r="O20" s="109" t="s">
+      <c r="P20" s="109" t="s">
         <v>390</v>
       </c>
-      <c r="P20" s="109" t="s">
+      <c r="Q20" s="109" t="s">
         <v>391</v>
       </c>
-      <c r="Q20" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" s="67" t="b">
+      <c r="R20" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S20" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T20" s="67" t="b">
+      <c r="T20" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U20" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V20" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" s="67" t="s">
         <v>419</v>
       </c>
-      <c r="W20" s="133" t="b">
+      <c r="X20" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="X20" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="Y20" s="133" t="s">
         <v>22</v>
       </c>
       <c r="Z20" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AA20" s="133" t="b">
+      <c r="AA20" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB20" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AB20" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="AC20" s="133" t="s">
         <v>22</v>
       </c>
       <c r="AD20" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE20" s="64" t="s">
+      <c r="AE20" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF20" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="31.5">
+    <row r="21" spans="1:32" ht="31.5">
       <c r="A21" s="64"/>
       <c r="B21" s="65">
         <v>17</v>
@@ -12946,34 +13082,32 @@
       <c r="K21" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="L21" s="67"/>
+      <c r="M21" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M21" s="123" t="s">
+      <c r="N21" s="123" t="s">
         <v>423</v>
       </c>
-      <c r="N21" s="110" t="s">
+      <c r="O21" s="110" t="s">
         <v>424</v>
       </c>
-      <c r="O21" s="109"/>
       <c r="P21" s="109"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="67" t="b">
+      <c r="Q21" s="109"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S21" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="T21" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V21" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W21" s="133" t="s">
+      <c r="W21" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X21" s="133" t="s">
@@ -12997,9 +13131,12 @@
       <c r="AD21" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE21" s="64"/>
-    </row>
-    <row r="22" spans="1:31" ht="47.25">
+      <c r="AE21" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF21" s="64"/>
+    </row>
+    <row r="22" spans="1:32" ht="173.25">
       <c r="A22" s="64" t="s">
         <v>345</v>
       </c>
@@ -13031,68 +13168,71 @@
       <c r="K22" s="67" t="s">
         <v>886</v>
       </c>
-      <c r="L22" s="65" t="s">
+      <c r="L22" s="67" t="s">
+        <v>903</v>
+      </c>
+      <c r="M22" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M22" s="123" t="s">
+      <c r="N22" s="123" t="s">
         <v>420</v>
       </c>
-      <c r="N22" s="110" t="s">
+      <c r="O22" s="110" t="s">
         <v>843</v>
       </c>
-      <c r="O22" s="109" t="s">
+      <c r="P22" s="109" t="s">
         <v>421</v>
       </c>
-      <c r="P22" s="109" t="s">
+      <c r="Q22" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="Q22" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R22" s="67" t="b">
+      <c r="R22" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S22" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T22" s="67" t="b">
+      <c r="T22" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U22" s="67" t="s">
+      <c r="V22" s="67" t="s">
         <v>422</v>
       </c>
-      <c r="V22" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W22" s="133" t="s">
+      <c r="W22" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X22" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Y22" s="133" t="b">
+      <c r="Y22" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z22" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="Z22" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA22" s="133" t="b">
+      <c r="AA22" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB22" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AB22" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC22" s="133" t="b">
-        <v>1</v>
+      <c r="AC22" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="AD22" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AE22" s="64" t="s">
+      <c r="AE22" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="31.5">
+    <row r="23" spans="1:32" ht="126">
       <c r="A23" s="64" t="s">
         <v>345</v>
       </c>
@@ -13121,48 +13261,48 @@
       <c r="K23" s="67" t="s">
         <v>837</v>
       </c>
-      <c r="L23" s="65" t="s">
+      <c r="L23" s="67" t="s">
+        <v>904</v>
+      </c>
+      <c r="M23" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M23" s="123" t="s">
+      <c r="N23" s="123" t="s">
         <v>426</v>
       </c>
-      <c r="N23" s="109" t="s">
+      <c r="O23" s="109" t="s">
         <v>427</v>
       </c>
-      <c r="O23" s="109" t="s">
+      <c r="P23" s="109" t="s">
         <v>428</v>
       </c>
-      <c r="P23" s="109" t="s">
+      <c r="Q23" s="109" t="s">
         <v>429</v>
       </c>
-      <c r="Q23" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" s="67" t="b">
+      <c r="R23" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S23" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T23" s="67" t="b">
+      <c r="T23" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U23" s="67" t="s">
+      <c r="V23" s="67" t="s">
         <v>430</v>
       </c>
-      <c r="V23" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W23" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="X23" s="133" t="b">
+      <c r="W23" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="X23" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="Y23" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="Z23" s="133" t="s">
         <v>22</v>
       </c>
@@ -13178,11 +13318,14 @@
       <c r="AD23" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE23" s="64" t="s">
+      <c r="AE23" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF23" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="63">
+    <row r="24" spans="1:32" ht="204.75">
       <c r="A24" s="64" t="s">
         <v>345</v>
       </c>
@@ -13211,68 +13354,71 @@
       <c r="K24" s="67" t="s">
         <v>841</v>
       </c>
-      <c r="L24" s="65" t="s">
+      <c r="L24" s="67" t="s">
+        <v>905</v>
+      </c>
+      <c r="M24" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M24" s="123" t="s">
+      <c r="N24" s="123" t="s">
         <v>431</v>
       </c>
-      <c r="N24" s="109" t="s">
+      <c r="O24" s="109" t="s">
         <v>432</v>
       </c>
-      <c r="O24" s="109" t="s">
+      <c r="P24" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="P24" s="109" t="s">
+      <c r="Q24" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="Q24" s="65" t="s">
+      <c r="R24" s="65" t="s">
         <v>435</v>
       </c>
-      <c r="R24" s="67" t="b">
+      <c r="S24" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S24" s="67" t="s">
+      <c r="T24" s="67" t="s">
         <v>436</v>
       </c>
-      <c r="T24" s="67" t="b">
+      <c r="U24" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U24" s="67" t="s">
+      <c r="V24" s="67" t="s">
         <v>437</v>
       </c>
-      <c r="V24" s="91" t="s">
+      <c r="W24" s="91" t="s">
         <v>845</v>
       </c>
-      <c r="W24" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="X24" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Y24" s="133" t="b">
+      <c r="Y24" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z24" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="Z24" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA24" s="133" t="b">
+      <c r="AA24" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB24" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AB24" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC24" s="133" t="b">
+      <c r="AC24" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD24" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AD24" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE24" s="65" t="s">
+      <c r="AE24" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF24" s="65" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="47.25">
+    <row r="25" spans="1:32" ht="157.5">
       <c r="A25" s="64" t="s">
         <v>345</v>
       </c>
@@ -13301,68 +13447,71 @@
       <c r="K25" s="67" t="s">
         <v>872</v>
       </c>
-      <c r="L25" s="65" t="s">
+      <c r="L25" s="67" t="s">
+        <v>906</v>
+      </c>
+      <c r="M25" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M25" s="123" t="s">
+      <c r="N25" s="123" t="s">
         <v>438</v>
       </c>
-      <c r="N25" s="109" t="s">
+      <c r="O25" s="109" t="s">
         <v>439</v>
       </c>
-      <c r="O25" s="109" t="s">
+      <c r="P25" s="109" t="s">
         <v>440</v>
       </c>
-      <c r="P25" s="109" t="s">
+      <c r="Q25" s="109" t="s">
         <v>441</v>
       </c>
-      <c r="Q25" s="65" t="s">
+      <c r="R25" s="65" t="s">
         <v>435</v>
       </c>
-      <c r="R25" s="67" t="b">
+      <c r="S25" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S25" s="67" t="s">
+      <c r="T25" s="67" t="s">
         <v>442</v>
       </c>
-      <c r="T25" s="67" t="b">
+      <c r="U25" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U25" s="67" t="s">
+      <c r="V25" s="67" t="s">
         <v>443</v>
       </c>
-      <c r="V25" s="71" t="s">
+      <c r="W25" s="71" t="s">
         <v>444</v>
       </c>
-      <c r="W25" s="133" t="b">
+      <c r="X25" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="X25" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y25" s="133" t="b">
+      <c r="Y25" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z25" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="Z25" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA25" s="133" t="b">
+      <c r="AA25" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB25" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AB25" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="AC25" s="133" t="s">
         <v>22</v>
       </c>
       <c r="AD25" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE25" s="64" t="s">
+      <c r="AE25" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF25" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="47.25" hidden="1">
+    <row r="26" spans="1:32" ht="47.25" hidden="1">
       <c r="A26" s="64" t="s">
         <v>345</v>
       </c>
@@ -13391,42 +13540,40 @@
       <c r="K26" s="67" t="s">
         <v>853</v>
       </c>
-      <c r="L26" s="65" t="s">
+      <c r="L26" s="67"/>
+      <c r="M26" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M26" s="123" t="s">
+      <c r="N26" s="123" t="s">
         <v>445</v>
       </c>
-      <c r="N26" s="109" t="s">
+      <c r="O26" s="109" t="s">
         <v>446</v>
       </c>
-      <c r="O26" s="109" t="s">
+      <c r="P26" s="109" t="s">
         <v>447</v>
       </c>
-      <c r="P26" s="109" t="s">
+      <c r="Q26" s="109" t="s">
         <v>448</v>
       </c>
-      <c r="Q26" s="65" t="s">
+      <c r="R26" s="65" t="s">
         <v>449</v>
       </c>
-      <c r="R26" s="67" t="b">
+      <c r="S26" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S26" s="67" t="s">
+      <c r="T26" s="67" t="s">
         <v>450</v>
       </c>
-      <c r="T26" s="67" t="b">
+      <c r="U26" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U26" s="67" t="s">
+      <c r="V26" s="67" t="s">
         <v>451</v>
       </c>
-      <c r="V26" s="69" t="s">
+      <c r="W26" s="69" t="s">
         <v>452</v>
       </c>
-      <c r="W26" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="X26" s="133" t="s">
         <v>22</v>
       </c>
@@ -13448,11 +13595,14 @@
       <c r="AD26" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE26" s="64" t="s">
+      <c r="AE26" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF26" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="47.25" hidden="1">
+    <row r="27" spans="1:32" ht="47.25" hidden="1">
       <c r="A27" s="64" t="s">
         <v>345</v>
       </c>
@@ -13481,40 +13631,38 @@
       <c r="K27" s="67" t="s">
         <v>854</v>
       </c>
-      <c r="L27" s="65" t="s">
+      <c r="L27" s="67"/>
+      <c r="M27" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M27" s="123" t="s">
+      <c r="N27" s="123" t="s">
         <v>453</v>
       </c>
-      <c r="N27" s="109" t="s">
+      <c r="O27" s="109" t="s">
         <v>454</v>
       </c>
-      <c r="O27" s="109" t="s">
+      <c r="P27" s="109" t="s">
         <v>390</v>
       </c>
-      <c r="P27" s="109" t="s">
+      <c r="Q27" s="109" t="s">
         <v>391</v>
       </c>
-      <c r="Q27" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R27" s="67" t="b">
+      <c r="R27" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S27" s="67" t="s">
+      <c r="T27" s="67" t="s">
         <v>455</v>
       </c>
-      <c r="T27" s="67" t="b">
+      <c r="U27" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U27" s="67" t="s">
+      <c r="V27" s="67" t="s">
         <v>456</v>
       </c>
-      <c r="V27" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W27" s="133" t="s">
+      <c r="W27" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X27" s="133" t="s">
@@ -13538,11 +13686,14 @@
       <c r="AD27" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE27" s="64" t="s">
+      <c r="AE27" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF27" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="94.5" hidden="1">
+    <row r="28" spans="1:32" ht="94.5" hidden="1">
       <c r="A28" s="64" t="s">
         <v>345</v>
       </c>
@@ -13571,40 +13722,38 @@
       <c r="K28" s="67" t="s">
         <v>842</v>
       </c>
-      <c r="L28" s="65" t="s">
+      <c r="L28" s="67"/>
+      <c r="M28" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M28" s="123" t="s">
+      <c r="N28" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="N28" s="109" t="s">
+      <c r="O28" s="109" t="s">
         <v>457</v>
-      </c>
-      <c r="O28" s="109" t="s">
-        <v>458</v>
       </c>
       <c r="P28" s="109" t="s">
         <v>458</v>
       </c>
-      <c r="Q28" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" s="67" t="b">
+      <c r="Q28" s="109" t="s">
+        <v>458</v>
+      </c>
+      <c r="R28" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S28" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T28" s="67" t="b">
+      <c r="T28" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U28" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U28" s="67" t="s">
+      <c r="V28" s="67" t="s">
         <v>459</v>
       </c>
-      <c r="V28" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W28" s="133" t="s">
+      <c r="W28" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X28" s="133" t="s">
@@ -13628,11 +13777,14 @@
       <c r="AD28" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE28" s="64" t="s">
+      <c r="AE28" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF28" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="31.5" hidden="1">
+    <row r="29" spans="1:32" ht="31.5" hidden="1">
       <c r="A29" s="64" t="s">
         <v>345</v>
       </c>
@@ -13661,40 +13813,38 @@
       <c r="K29" s="67" t="s">
         <v>852</v>
       </c>
-      <c r="L29" s="65" t="s">
+      <c r="L29" s="67"/>
+      <c r="M29" s="65" t="s">
         <v>851</v>
       </c>
-      <c r="M29" s="123" t="s">
+      <c r="N29" s="123" t="s">
         <v>460</v>
       </c>
-      <c r="N29" s="109" t="s">
+      <c r="O29" s="109" t="s">
         <v>461</v>
-      </c>
-      <c r="O29" s="109" t="s">
-        <v>462</v>
       </c>
       <c r="P29" s="109" t="s">
         <v>462</v>
       </c>
-      <c r="Q29" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R29" s="67" t="b">
+      <c r="Q29" s="109" t="s">
+        <v>462</v>
+      </c>
+      <c r="R29" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S29" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T29" s="67" t="b">
+      <c r="T29" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U29" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U29" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V29" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W29" s="133" t="s">
+      <c r="W29" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X29" s="133" t="s">
@@ -13703,8 +13853,8 @@
       <c r="Y29" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Z29" s="133" t="b">
-        <v>1</v>
+      <c r="Z29" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="AA29" s="133" t="b">
         <v>1</v>
@@ -13712,17 +13862,20 @@
       <c r="AB29" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AC29" s="133" t="s">
-        <v>22</v>
+      <c r="AC29" s="133" t="b">
+        <v>1</v>
       </c>
       <c r="AD29" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE29" s="64" t="s">
+      <c r="AE29" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF29" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="110.25" hidden="1">
+    <row r="30" spans="1:32" ht="110.25" hidden="1">
       <c r="A30" s="64" t="s">
         <v>345</v>
       </c>
@@ -13751,48 +13904,46 @@
       <c r="K30" s="67" t="s">
         <v>862</v>
       </c>
-      <c r="L30" s="65" t="s">
+      <c r="L30" s="67"/>
+      <c r="M30" s="65" t="s">
         <v>849</v>
       </c>
-      <c r="M30" s="123" t="s">
+      <c r="N30" s="123" t="s">
         <v>463</v>
       </c>
-      <c r="N30" s="109" t="s">
+      <c r="O30" s="109" t="s">
         <v>464</v>
       </c>
-      <c r="O30" s="109" t="s">
+      <c r="P30" s="109" t="s">
         <v>358</v>
       </c>
-      <c r="P30" s="109" t="s">
+      <c r="Q30" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="Q30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R30" s="67" t="b">
+      <c r="R30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S30" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T30" s="67" t="b">
+      <c r="T30" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U30" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U30" s="67" t="s">
+      <c r="V30" s="67" t="s">
         <v>465</v>
       </c>
-      <c r="V30" s="67"/>
-      <c r="W30" s="133" t="s">
-        <v>22</v>
-      </c>
+      <c r="W30" s="67"/>
       <c r="X30" s="133" t="s">
         <v>22</v>
       </c>
       <c r="Y30" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Z30" s="133" t="b">
-        <v>1</v>
+      <c r="Z30" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="AA30" s="133" t="b">
         <v>1</v>
@@ -13800,17 +13951,20 @@
       <c r="AB30" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AC30" s="133" t="s">
-        <v>22</v>
+      <c r="AC30" s="133" t="b">
+        <v>1</v>
       </c>
       <c r="AD30" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE30" s="64" t="s">
+      <c r="AE30" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF30" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="78.75" hidden="1">
+    <row r="31" spans="1:32" ht="78.75" hidden="1">
       <c r="A31" s="64" t="s">
         <v>345</v>
       </c>
@@ -13839,40 +13993,38 @@
       <c r="K31" s="67" t="s">
         <v>865</v>
       </c>
-      <c r="L31" s="65" t="s">
+      <c r="L31" s="67"/>
+      <c r="M31" s="65" t="s">
         <v>850</v>
       </c>
-      <c r="M31" s="123" t="s">
+      <c r="N31" s="123" t="s">
         <v>466</v>
       </c>
-      <c r="N31" s="109" t="s">
+      <c r="O31" s="109" t="s">
         <v>467</v>
       </c>
-      <c r="O31" s="109" t="s">
+      <c r="P31" s="109" t="s">
         <v>468</v>
       </c>
-      <c r="P31" s="109" t="s">
+      <c r="Q31" s="109" t="s">
         <v>469</v>
       </c>
-      <c r="Q31" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R31" s="67" t="b">
+      <c r="R31" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S31" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S31" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T31" s="67" t="b">
+      <c r="T31" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U31" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U31" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V31" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W31" s="133" t="s">
+      <c r="W31" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X31" s="133" t="s">
@@ -13881,8 +14033,8 @@
       <c r="Y31" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Z31" s="133" t="b">
-        <v>1</v>
+      <c r="Z31" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="AA31" s="133" t="b">
         <v>1</v>
@@ -13890,17 +14042,20 @@
       <c r="AB31" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AC31" s="133" t="s">
-        <v>22</v>
+      <c r="AC31" s="133" t="b">
+        <v>1</v>
       </c>
       <c r="AD31" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE31" s="64" t="s">
+      <c r="AE31" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF31" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="31.5" hidden="1">
+    <row r="32" spans="1:32" ht="31.5" hidden="1">
       <c r="A32" s="64" t="s">
         <v>345</v>
       </c>
@@ -13929,40 +14084,38 @@
       <c r="K32" s="67" t="s">
         <v>863</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="L32" s="67"/>
+      <c r="M32" s="65" t="s">
         <v>866</v>
       </c>
-      <c r="M32" s="123" t="s">
+      <c r="N32" s="123" t="s">
         <v>470</v>
       </c>
-      <c r="N32" s="109" t="s">
+      <c r="O32" s="109" t="s">
         <v>471</v>
       </c>
-      <c r="O32" s="109" t="s">
+      <c r="P32" s="109" t="s">
         <v>358</v>
       </c>
-      <c r="P32" s="109" t="s">
+      <c r="Q32" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="Q32" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R32" s="67" t="b">
+      <c r="R32" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S32" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S32" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T32" s="67" t="b">
+      <c r="T32" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U32" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U32" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V32" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W32" s="133" t="s">
+      <c r="W32" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X32" s="133" t="s">
@@ -13971,8 +14124,8 @@
       <c r="Y32" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Z32" s="133" t="b">
-        <v>1</v>
+      <c r="Z32" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="AA32" s="133" t="b">
         <v>1</v>
@@ -13980,17 +14133,20 @@
       <c r="AB32" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AC32" s="133" t="s">
-        <v>22</v>
+      <c r="AC32" s="133" t="b">
+        <v>1</v>
       </c>
       <c r="AD32" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE32" s="64" t="s">
+      <c r="AE32" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF32" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="31.5" hidden="1">
+    <row r="33" spans="1:32" ht="31.5" hidden="1">
       <c r="A33" s="64" t="s">
         <v>345</v>
       </c>
@@ -14019,40 +14175,38 @@
       <c r="K33" s="67" t="s">
         <v>855</v>
       </c>
-      <c r="L33" s="65" t="s">
+      <c r="L33" s="67"/>
+      <c r="M33" s="65" t="s">
         <v>866</v>
       </c>
-      <c r="M33" s="123" t="s">
+      <c r="N33" s="123" t="s">
         <v>472</v>
       </c>
-      <c r="N33" s="109" t="s">
+      <c r="O33" s="109" t="s">
         <v>473</v>
-      </c>
-      <c r="O33" s="109" t="s">
-        <v>474</v>
       </c>
       <c r="P33" s="109" t="s">
         <v>474</v>
       </c>
-      <c r="Q33" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R33" s="67" t="b">
+      <c r="Q33" s="109" t="s">
+        <v>474</v>
+      </c>
+      <c r="R33" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S33" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="T33" s="67" t="b">
+      <c r="T33" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="U33" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U33" s="67" t="s">
+      <c r="V33" s="67" t="s">
         <v>475</v>
       </c>
-      <c r="V33" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W33" s="133" t="s">
+      <c r="W33" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X33" s="133" t="s">
@@ -14061,8 +14215,8 @@
       <c r="Y33" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Z33" s="133" t="b">
-        <v>1</v>
+      <c r="Z33" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="AA33" s="133" t="b">
         <v>1</v>
@@ -14070,17 +14224,20 @@
       <c r="AB33" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AC33" s="133" t="s">
-        <v>22</v>
+      <c r="AC33" s="133" t="b">
+        <v>1</v>
       </c>
       <c r="AD33" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE33" s="65" t="s">
+      <c r="AE33" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF33" s="65" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="31.5" hidden="1">
+    <row r="34" spans="1:32" ht="31.5" hidden="1">
       <c r="A34" s="64" t="s">
         <v>345</v>
       </c>
@@ -14109,40 +14266,38 @@
       <c r="K34" s="67" t="s">
         <v>873</v>
       </c>
-      <c r="L34" s="65" t="s">
+      <c r="L34" s="67"/>
+      <c r="M34" s="65" t="s">
         <v>866</v>
       </c>
-      <c r="M34" s="125" t="s">
+      <c r="N34" s="125" t="s">
         <v>379</v>
       </c>
-      <c r="N34" s="112" t="s">
+      <c r="O34" s="112" t="s">
         <v>476</v>
       </c>
-      <c r="O34" s="112" t="s">
+      <c r="P34" s="112" t="s">
         <v>358</v>
       </c>
-      <c r="P34" s="112" t="s">
+      <c r="Q34" s="112" t="s">
         <v>359</v>
       </c>
-      <c r="Q34" s="122" t="s">
-        <v>22</v>
-      </c>
-      <c r="R34" s="67" t="b">
+      <c r="R34" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="S34" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S34" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T34" s="67" t="b">
+      <c r="T34" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U34" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U34" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V34" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W34" s="133" t="s">
+      <c r="W34" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X34" s="133" t="s">
@@ -14151,8 +14306,8 @@
       <c r="Y34" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Z34" s="133" t="b">
-        <v>1</v>
+      <c r="Z34" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="AA34" s="133" t="b">
         <v>1</v>
@@ -14160,17 +14315,20 @@
       <c r="AB34" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AC34" s="133" t="s">
-        <v>22</v>
+      <c r="AC34" s="133" t="b">
+        <v>1</v>
       </c>
       <c r="AD34" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE34" s="64" t="s">
+      <c r="AE34" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF34" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="15.75" hidden="1">
+    <row r="35" spans="1:32" ht="15.75" hidden="1">
       <c r="A35" s="64" t="s">
         <v>345</v>
       </c>
@@ -14199,40 +14357,38 @@
       <c r="K35" s="67" t="s">
         <v>864</v>
       </c>
-      <c r="L35" s="65" t="s">
+      <c r="L35" s="67"/>
+      <c r="M35" s="65" t="s">
         <v>867</v>
       </c>
-      <c r="M35" s="123" t="s">
+      <c r="N35" s="123" t="s">
         <v>477</v>
       </c>
-      <c r="N35" s="109" t="s">
+      <c r="O35" s="109" t="s">
         <v>478</v>
       </c>
-      <c r="O35" s="109" t="s">
+      <c r="P35" s="109" t="s">
         <v>358</v>
       </c>
-      <c r="P35" s="109" t="s">
+      <c r="Q35" s="109" t="s">
         <v>359</v>
       </c>
-      <c r="Q35" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R35" s="67" t="b">
+      <c r="R35" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S35" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S35" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T35" s="67" t="b">
+      <c r="T35" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U35" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U35" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V35" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W35" s="133" t="s">
+      <c r="W35" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X35" s="133" t="s">
@@ -14241,8 +14397,8 @@
       <c r="Y35" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Z35" s="133" t="b">
-        <v>1</v>
+      <c r="Z35" s="133" t="s">
+        <v>22</v>
       </c>
       <c r="AA35" s="133" t="b">
         <v>1</v>
@@ -14250,17 +14406,20 @@
       <c r="AB35" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AC35" s="133" t="s">
-        <v>22</v>
+      <c r="AC35" s="133" t="b">
+        <v>1</v>
       </c>
       <c r="AD35" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE35" s="64" t="s">
+      <c r="AE35" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF35" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="47.25" hidden="1">
+    <row r="36" spans="1:32" ht="47.25" hidden="1">
       <c r="A36" s="64" t="s">
         <v>345</v>
       </c>
@@ -14291,48 +14450,46 @@
       <c r="K36" s="144" t="s">
         <v>829</v>
       </c>
-      <c r="L36" s="65" t="s">
+      <c r="L36" s="144"/>
+      <c r="M36" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M36" s="123" t="s">
+      <c r="N36" s="123" t="s">
         <v>426</v>
       </c>
-      <c r="N36" s="109" t="s">
+      <c r="O36" s="109" t="s">
         <v>479</v>
       </c>
-      <c r="O36" s="109" t="s">
+      <c r="P36" s="109" t="s">
         <v>428</v>
       </c>
-      <c r="P36" s="109" t="s">
+      <c r="Q36" s="109" t="s">
         <v>429</v>
       </c>
-      <c r="Q36" s="65" t="s">
+      <c r="R36" s="65" t="s">
         <v>480</v>
       </c>
-      <c r="R36" s="67" t="b">
+      <c r="S36" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S36" s="67" t="s">
+      <c r="T36" s="67" t="s">
         <v>481</v>
       </c>
-      <c r="T36" s="67" t="b">
+      <c r="U36" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U36" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V36" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W36" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="X36" s="133" t="b">
+      <c r="W36" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="X36" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y36" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="Y36" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="Z36" s="133" t="s">
         <v>22</v>
       </c>
@@ -14348,11 +14505,14 @@
       <c r="AD36" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE36" s="64" t="s">
+      <c r="AE36" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF36" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="94.5" hidden="1">
+    <row r="37" spans="1:32" ht="94.5" hidden="1">
       <c r="A37" s="64" t="s">
         <v>345</v>
       </c>
@@ -14383,42 +14543,40 @@
       <c r="K37" s="144" t="s">
         <v>829</v>
       </c>
-      <c r="L37" s="65" t="s">
+      <c r="L37" s="144"/>
+      <c r="M37" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M37" s="123" t="s">
+      <c r="N37" s="123" t="s">
         <v>445</v>
       </c>
-      <c r="N37" s="109" t="s">
+      <c r="O37" s="109" t="s">
         <v>482</v>
       </c>
-      <c r="O37" s="109" t="s">
+      <c r="P37" s="109" t="s">
         <v>447</v>
       </c>
-      <c r="P37" s="109" t="s">
+      <c r="Q37" s="109" t="s">
         <v>483</v>
       </c>
-      <c r="Q37" s="65" t="s">
+      <c r="R37" s="65" t="s">
         <v>484</v>
       </c>
-      <c r="R37" s="67" t="b">
+      <c r="S37" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S37" s="67" t="s">
+      <c r="T37" s="67" t="s">
         <v>485</v>
       </c>
-      <c r="T37" s="67" t="b">
+      <c r="U37" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U37" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V37" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="W37" s="67" t="s">
         <v>486</v>
       </c>
-      <c r="W37" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="X37" s="133" t="s">
         <v>22</v>
       </c>
@@ -14440,11 +14598,14 @@
       <c r="AD37" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE37" s="64" t="s">
+      <c r="AE37" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF37" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="78.75" hidden="1">
+    <row r="38" spans="1:32" ht="78.75" hidden="1">
       <c r="A38" s="64" t="s">
         <v>345</v>
       </c>
@@ -14475,42 +14636,40 @@
       <c r="K38" s="144" t="s">
         <v>829</v>
       </c>
-      <c r="L38" s="65" t="s">
+      <c r="L38" s="144"/>
+      <c r="M38" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M38" s="123" t="s">
+      <c r="N38" s="123" t="s">
         <v>431</v>
       </c>
-      <c r="N38" s="109" t="s">
+      <c r="O38" s="109" t="s">
         <v>487</v>
       </c>
-      <c r="O38" s="109" t="s">
+      <c r="P38" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="P38" s="109" t="s">
+      <c r="Q38" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="Q38" s="65" t="s">
+      <c r="R38" s="65" t="s">
         <v>435</v>
       </c>
-      <c r="R38" s="67" t="b">
+      <c r="S38" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S38" s="67" t="s">
+      <c r="T38" s="67" t="s">
         <v>488</v>
       </c>
-      <c r="T38" s="67" t="b">
+      <c r="U38" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U38" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V38" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="W38" s="67" t="s">
         <v>486</v>
       </c>
-      <c r="W38" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="X38" s="133" t="s">
         <v>22</v>
       </c>
@@ -14520,23 +14679,26 @@
       <c r="Z38" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AA38" s="133" t="b">
+      <c r="AA38" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB38" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AB38" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC38" s="133" t="b">
+      <c r="AC38" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD38" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AD38" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE38" s="64" t="s">
+      <c r="AE38" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF38" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="47.25" hidden="1">
+    <row r="39" spans="1:32" ht="47.25" hidden="1">
       <c r="A39" s="64" t="s">
         <v>345</v>
       </c>
@@ -14567,42 +14729,40 @@
       <c r="K39" s="67" t="s">
         <v>832</v>
       </c>
-      <c r="L39" s="65" t="s">
+      <c r="L39" s="67"/>
+      <c r="M39" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M39" s="123" t="s">
+      <c r="N39" s="123" t="s">
         <v>489</v>
       </c>
-      <c r="N39" s="109" t="s">
+      <c r="O39" s="109" t="s">
         <v>490</v>
       </c>
-      <c r="O39" s="109" t="s">
+      <c r="P39" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="P39" s="109" t="s">
+      <c r="Q39" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="Q39" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R39" s="67" t="b">
+      <c r="R39" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S39" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S39" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T39" s="67" t="b">
+      <c r="T39" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U39" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U39" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V39" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="W39" s="67" t="s">
         <v>491</v>
       </c>
-      <c r="W39" s="116" t="s">
-        <v>22</v>
-      </c>
       <c r="X39" s="116" t="s">
         <v>22</v>
       </c>
@@ -14624,11 +14784,14 @@
       <c r="AD39" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE39" s="64" t="s">
+      <c r="AE39" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF39" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="47.25" hidden="1">
+    <row r="40" spans="1:32" ht="47.25" hidden="1">
       <c r="A40" s="64" t="s">
         <v>345</v>
       </c>
@@ -14659,42 +14822,40 @@
       <c r="K40" s="67" t="s">
         <v>832</v>
       </c>
-      <c r="L40" s="65" t="s">
+      <c r="L40" s="67"/>
+      <c r="M40" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M40" s="123" t="s">
+      <c r="N40" s="123" t="s">
         <v>492</v>
       </c>
-      <c r="N40" s="109" t="s">
+      <c r="O40" s="109" t="s">
         <v>493</v>
       </c>
-      <c r="O40" s="109" t="s">
+      <c r="P40" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="P40" s="109" t="s">
+      <c r="Q40" s="109" t="s">
         <v>434</v>
       </c>
-      <c r="Q40" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R40" s="67" t="b">
+      <c r="R40" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S40" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S40" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T40" s="67" t="b">
+      <c r="T40" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U40" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U40" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V40" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="W40" s="67" t="s">
         <v>491</v>
       </c>
-      <c r="W40" s="116" t="s">
-        <v>22</v>
-      </c>
       <c r="X40" s="116" t="s">
         <v>22</v>
       </c>
@@ -14716,11 +14877,14 @@
       <c r="AD40" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE40" s="64" t="s">
+      <c r="AE40" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF40" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="78.75" hidden="1">
+    <row r="41" spans="1:32" ht="78.75" hidden="1">
       <c r="A41" s="64" t="s">
         <v>345</v>
       </c>
@@ -14751,68 +14915,69 @@
       <c r="K41" s="67" t="s">
         <v>832</v>
       </c>
-      <c r="L41" s="65" t="s">
+      <c r="L41" s="67"/>
+      <c r="M41" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M41" s="123" t="s">
+      <c r="N41" s="123" t="s">
         <v>438</v>
       </c>
-      <c r="N41" s="109" t="s">
+      <c r="O41" s="109" t="s">
         <v>494</v>
       </c>
-      <c r="O41" s="109" t="s">
+      <c r="P41" s="109" t="s">
         <v>440</v>
       </c>
-      <c r="P41" s="109" t="s">
+      <c r="Q41" s="109" t="s">
         <v>441</v>
       </c>
-      <c r="Q41" s="65" t="s">
+      <c r="R41" s="65" t="s">
         <v>435</v>
       </c>
-      <c r="R41" s="67" t="b">
+      <c r="S41" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S41" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T41" s="67" t="b">
+      <c r="T41" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U41" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U41" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V41" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="W41" s="67" t="s">
         <v>491</v>
       </c>
-      <c r="W41" s="133" t="b">
+      <c r="X41" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="X41" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y41" s="133" t="b">
+      <c r="Y41" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z41" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="Z41" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA41" s="133" t="b">
+      <c r="AA41" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB41" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AB41" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="AC41" s="133" t="s">
         <v>22</v>
       </c>
       <c r="AD41" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE41" s="64" t="s">
+      <c r="AE41" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF41" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="31.5" hidden="1">
+    <row r="42" spans="1:32" ht="31.5" hidden="1">
       <c r="A42" s="64" t="s">
         <v>345</v>
       </c>
@@ -14843,38 +15008,36 @@
       <c r="K42" s="67" t="s">
         <v>830</v>
       </c>
-      <c r="L42" s="65" t="s">
+      <c r="L42" s="67"/>
+      <c r="M42" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M42" s="123" t="s">
+      <c r="N42" s="123" t="s">
         <v>495</v>
       </c>
-      <c r="N42" s="109" t="s">
+      <c r="O42" s="109" t="s">
         <v>496</v>
       </c>
-      <c r="O42" s="109" t="s">
+      <c r="P42" s="109" t="s">
         <v>440</v>
       </c>
-      <c r="P42" s="109" t="s">
+      <c r="Q42" s="109" t="s">
         <v>441</v>
       </c>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="67" t="b">
+      <c r="R42" s="65"/>
+      <c r="S42" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S42" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T42" s="67" t="b">
+      <c r="T42" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U42" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U42" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V42" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W42" s="116" t="s">
+      <c r="W42" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X42" s="116" t="s">
@@ -14898,11 +15061,14 @@
       <c r="AD42" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE42" s="64" t="s">
+      <c r="AE42" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF42" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="47.25" hidden="1">
+    <row r="43" spans="1:32" ht="47.25" hidden="1">
       <c r="A43" s="64" t="s">
         <v>345</v>
       </c>
@@ -14933,42 +15099,40 @@
       <c r="K43" s="67" t="s">
         <v>832</v>
       </c>
-      <c r="L43" s="65" t="s">
+      <c r="L43" s="67"/>
+      <c r="M43" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M43" s="123" t="s">
+      <c r="N43" s="123" t="s">
         <v>497</v>
       </c>
-      <c r="N43" s="109" t="s">
+      <c r="O43" s="109" t="s">
         <v>498</v>
       </c>
-      <c r="O43" s="109" t="s">
+      <c r="P43" s="109" t="s">
         <v>440</v>
       </c>
-      <c r="P43" s="109" t="s">
+      <c r="Q43" s="109" t="s">
         <v>441</v>
       </c>
-      <c r="Q43" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R43" s="67" t="b">
+      <c r="R43" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S43" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S43" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T43" s="67" t="b">
+      <c r="T43" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U43" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U43" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V43" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="W43" s="67" t="s">
         <v>491</v>
       </c>
-      <c r="W43" s="116" t="s">
-        <v>22</v>
-      </c>
       <c r="X43" s="116" t="s">
         <v>22</v>
       </c>
@@ -14990,11 +15154,14 @@
       <c r="AD43" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE43" s="64" t="s">
+      <c r="AE43" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF43" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="31.5" hidden="1">
+    <row r="44" spans="1:32" ht="31.5" hidden="1">
       <c r="A44" s="64" t="s">
         <v>345</v>
       </c>
@@ -15023,42 +15190,40 @@
       <c r="K44" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="L44" s="65" t="s">
+      <c r="L44" s="67"/>
+      <c r="M44" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M44" s="123" t="s">
+      <c r="N44" s="123" t="s">
         <v>499</v>
       </c>
-      <c r="N44" s="109" t="s">
+      <c r="O44" s="109" t="s">
         <v>500</v>
       </c>
-      <c r="O44" s="113" t="s">
+      <c r="P44" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="P44" s="113" t="s">
+      <c r="Q44" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="Q44" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R44" s="67" t="b">
+      <c r="R44" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S44" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S44" s="67" t="s">
+      <c r="T44" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="T44" s="67" t="b">
+      <c r="U44" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U44" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="V44" s="153" t="s">
+      <c r="V44" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="W44" s="153" t="s">
         <v>502</v>
       </c>
-      <c r="W44" s="116" t="s">
-        <v>22</v>
-      </c>
       <c r="X44" s="116" t="s">
         <v>22</v>
       </c>
@@ -15080,11 +15245,14 @@
       <c r="AD44" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE44" s="64" t="s">
+      <c r="AE44" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF44" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="78.75" hidden="1">
+    <row r="45" spans="1:32" ht="78.75" hidden="1">
       <c r="A45" s="64" t="s">
         <v>345</v>
       </c>
@@ -15113,36 +15281,34 @@
       <c r="K45" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="L45" s="65" t="s">
+      <c r="L45" s="67"/>
+      <c r="M45" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M45" s="123" t="s">
+      <c r="N45" s="123" t="s">
         <v>503</v>
       </c>
-      <c r="N45" s="109" t="s">
+      <c r="O45" s="109" t="s">
         <v>504</v>
       </c>
-      <c r="O45" s="113" t="s">
+      <c r="P45" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="P45" s="113" t="s">
+      <c r="Q45" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="Q45" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R45" s="67" t="b">
+      <c r="R45" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S45" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S45" s="67" t="s">
+      <c r="T45" s="67" t="s">
         <v>505</v>
       </c>
-      <c r="T45" s="67" t="b">
+      <c r="U45" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U45" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V45" s="67" t="s">
         <v>22</v>
       </c>
@@ -15170,11 +15336,14 @@
       <c r="AD45" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AE45" s="64" t="s">
+      <c r="AE45" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF45" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="47.25" hidden="1">
+    <row r="46" spans="1:32" ht="47.25" hidden="1">
       <c r="A46" s="64" t="s">
         <v>345</v>
       </c>
@@ -15203,42 +15372,40 @@
       <c r="K46" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="L46" s="65" t="s">
+      <c r="L46" s="67"/>
+      <c r="M46" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M46" s="123" t="s">
+      <c r="N46" s="123" t="s">
         <v>506</v>
       </c>
-      <c r="N46" s="109" t="s">
+      <c r="O46" s="109" t="s">
         <v>507</v>
-      </c>
-      <c r="O46" s="109" t="s">
-        <v>508</v>
       </c>
       <c r="P46" s="109" t="s">
         <v>508</v>
       </c>
-      <c r="Q46" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R46" s="67" t="b">
+      <c r="Q46" s="109" t="s">
+        <v>508</v>
+      </c>
+      <c r="R46" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S46" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S46" s="67" t="s">
+      <c r="T46" s="67" t="s">
         <v>509</v>
       </c>
-      <c r="T46" s="67" t="b">
+      <c r="U46" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U46" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="V46" s="69" t="s">
+      <c r="V46" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="W46" s="69" t="s">
         <v>510</v>
       </c>
-      <c r="W46" s="116" t="s">
-        <v>22</v>
-      </c>
       <c r="X46" s="116" t="s">
         <v>22</v>
       </c>
@@ -15260,11 +15427,14 @@
       <c r="AD46" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE46" s="64" t="s">
+      <c r="AE46" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF46" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="31.5" hidden="1">
+    <row r="47" spans="1:32" ht="31.5" hidden="1">
       <c r="A47" s="64" t="s">
         <v>345</v>
       </c>
@@ -15293,40 +15463,38 @@
       <c r="K47" s="67" t="s">
         <v>887</v>
       </c>
-      <c r="L47" s="67" t="s">
+      <c r="L47" s="67"/>
+      <c r="M47" s="67" t="s">
         <v>831</v>
       </c>
-      <c r="M47" s="123" t="s">
+      <c r="N47" s="123" t="s">
         <v>511</v>
       </c>
-      <c r="N47" s="109" t="s">
+      <c r="O47" s="109" t="s">
         <v>512</v>
       </c>
-      <c r="O47" s="113" t="s">
+      <c r="P47" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="P47" s="113" t="s">
+      <c r="Q47" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="Q47" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R47" s="67" t="b">
+      <c r="R47" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S47" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S47" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T47" s="67" t="b">
+      <c r="T47" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U47" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U47" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V47" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W47" s="133" t="s">
+      <c r="W47" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X47" s="133" t="s">
@@ -15338,23 +15506,26 @@
       <c r="Z47" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AA47" s="133" t="b">
+      <c r="AA47" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB47" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AB47" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="AC47" s="133" t="s">
         <v>22</v>
       </c>
       <c r="AD47" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE47" s="64" t="s">
+      <c r="AE47" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF47" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="47.25" hidden="1">
+    <row r="48" spans="1:32" ht="47.25" hidden="1">
       <c r="A48" s="64" t="s">
         <v>345</v>
       </c>
@@ -15383,40 +15554,38 @@
       <c r="K48" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="L48" s="65" t="s">
+      <c r="L48" s="67"/>
+      <c r="M48" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M48" s="123" t="s">
+      <c r="N48" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="N48" s="109" t="s">
+      <c r="O48" s="109" t="s">
         <v>513</v>
       </c>
-      <c r="O48" s="113" t="s">
+      <c r="P48" s="113" t="s">
         <v>514</v>
       </c>
-      <c r="P48" s="113" t="s">
+      <c r="Q48" s="113" t="s">
         <v>515</v>
       </c>
-      <c r="Q48" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R48" s="67" t="b">
+      <c r="R48" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S48" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S48" s="67" t="s">
+      <c r="T48" s="67" t="s">
         <v>516</v>
       </c>
-      <c r="T48" s="67" t="b">
+      <c r="U48" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U48" s="117" t="s">
+      <c r="V48" s="117" t="s">
         <v>517</v>
       </c>
-      <c r="V48" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W48" s="116" t="s">
+      <c r="W48" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X48" s="116" t="s">
@@ -15440,11 +15609,14 @@
       <c r="AD48" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE48" s="64" t="s">
+      <c r="AE48" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF48" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="31.5" hidden="1">
+    <row r="49" spans="1:32" ht="31.5" hidden="1">
       <c r="A49" s="64" t="s">
         <v>345</v>
       </c>
@@ -15473,40 +15645,38 @@
       <c r="K49" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="L49" s="65" t="s">
+      <c r="L49" s="67"/>
+      <c r="M49" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M49" s="123" t="s">
+      <c r="N49" s="123" t="s">
         <v>518</v>
       </c>
-      <c r="N49" s="109" t="s">
+      <c r="O49" s="109" t="s">
         <v>519</v>
       </c>
-      <c r="O49" s="114" t="s">
+      <c r="P49" s="114" t="s">
         <v>520</v>
       </c>
-      <c r="P49" s="114" t="s">
+      <c r="Q49" s="114" t="s">
         <v>521</v>
       </c>
-      <c r="Q49" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R49" s="67" t="b">
+      <c r="R49" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S49" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S49" s="67" t="s">
+      <c r="T49" s="67" t="s">
         <v>522</v>
       </c>
-      <c r="T49" s="67" t="b">
+      <c r="U49" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U49" s="152" t="s">
+      <c r="V49" s="152" t="s">
         <v>517</v>
       </c>
-      <c r="V49" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W49" s="116" t="s">
+      <c r="W49" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X49" s="116" t="s">
@@ -15530,11 +15700,14 @@
       <c r="AD49" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE49" s="64" t="s">
+      <c r="AE49" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF49" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="47.25" hidden="1">
+    <row r="50" spans="1:32" ht="47.25" hidden="1">
       <c r="A50" s="64" t="s">
         <v>345</v>
       </c>
@@ -15563,40 +15736,38 @@
       <c r="K50" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="L50" s="65" t="s">
+      <c r="L50" s="67"/>
+      <c r="M50" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M50" s="123" t="s">
+      <c r="N50" s="123" t="s">
         <v>523</v>
       </c>
-      <c r="N50" s="109" t="s">
+      <c r="O50" s="109" t="s">
         <v>524</v>
       </c>
-      <c r="O50" s="113" t="s">
+      <c r="P50" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="P50" s="113" t="s">
+      <c r="Q50" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="Q50" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R50" s="67" t="b">
+      <c r="R50" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S50" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S50" s="67" t="s">
+      <c r="T50" s="67" t="s">
         <v>525</v>
       </c>
-      <c r="T50" s="67" t="b">
+      <c r="U50" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U50" s="116" t="s">
+      <c r="V50" s="116" t="s">
         <v>526</v>
       </c>
-      <c r="V50" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W50" s="116" t="s">
+      <c r="W50" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X50" s="116" t="s">
@@ -15620,11 +15791,14 @@
       <c r="AD50" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE50" s="64" t="s">
+      <c r="AE50" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF50" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="31.5" hidden="1">
+    <row r="51" spans="1:32" ht="31.5" hidden="1">
       <c r="A51" s="64" t="s">
         <v>345</v>
       </c>
@@ -15653,40 +15827,38 @@
       <c r="K51" s="67" t="s">
         <v>868</v>
       </c>
-      <c r="L51" s="65" t="s">
+      <c r="L51" s="67"/>
+      <c r="M51" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M51" s="123" t="s">
+      <c r="N51" s="123" t="s">
         <v>527</v>
       </c>
-      <c r="N51" s="109" t="s">
+      <c r="O51" s="109" t="s">
         <v>528</v>
       </c>
-      <c r="O51" s="113" t="s">
+      <c r="P51" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="P51" s="113" t="s">
+      <c r="Q51" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="Q51" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R51" s="67" t="b">
+      <c r="R51" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S51" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S51" s="67" t="s">
+      <c r="T51" s="67" t="s">
         <v>529</v>
       </c>
-      <c r="T51" s="67" t="b">
+      <c r="U51" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U51" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V51" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W51" s="116" t="s">
+      <c r="W51" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X51" s="116" t="s">
@@ -15710,11 +15882,14 @@
       <c r="AD51" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AE51" s="64" t="s">
+      <c r="AE51" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF51" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="31.5">
+    <row r="52" spans="1:32" ht="78.75">
       <c r="A52" s="64" t="s">
         <v>345</v>
       </c>
@@ -15745,45 +15920,45 @@
       <c r="K52" s="67" t="s">
         <v>833</v>
       </c>
-      <c r="L52" s="65" t="s">
+      <c r="L52" s="67" t="s">
+        <v>907</v>
+      </c>
+      <c r="M52" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M52" s="123" t="s">
+      <c r="N52" s="123" t="s">
         <v>530</v>
       </c>
-      <c r="N52" s="109" t="s">
+      <c r="O52" s="109" t="s">
         <v>531</v>
       </c>
-      <c r="O52" s="113" t="s">
+      <c r="P52" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="P52" s="113" t="s">
+      <c r="Q52" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="Q52" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R52" s="67" t="b">
+      <c r="R52" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S52" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S52" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T52" s="67" t="b">
+      <c r="T52" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U52" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U52" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V52" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W52" s="133" t="b">
+      <c r="W52" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="X52" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="X52" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="Y52" s="133" t="s">
         <v>22</v>
       </c>
@@ -15802,11 +15977,14 @@
       <c r="AD52" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE52" s="64" t="s">
+      <c r="AE52" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF52" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="31.5" hidden="1">
+    <row r="53" spans="1:32" ht="31.5" hidden="1">
       <c r="A53" s="64" t="s">
         <v>345</v>
       </c>
@@ -15835,40 +16013,38 @@
       <c r="K53" s="67" t="s">
         <v>834</v>
       </c>
-      <c r="L53" s="65" t="s">
+      <c r="L53" s="67"/>
+      <c r="M53" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M53" s="123" t="s">
+      <c r="N53" s="123" t="s">
         <v>532</v>
       </c>
-      <c r="N53" s="109" t="s">
+      <c r="O53" s="109" t="s">
         <v>533</v>
       </c>
-      <c r="O53" s="113" t="s">
+      <c r="P53" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="P53" s="113" t="s">
+      <c r="Q53" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="Q53" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R53" s="67" t="b">
+      <c r="R53" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S53" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S53" s="67" t="s">
+      <c r="T53" s="67" t="s">
         <v>534</v>
       </c>
-      <c r="T53" s="67" t="b">
+      <c r="U53" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U53" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V53" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W53" s="133" t="s">
+      <c r="W53" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X53" s="133" t="s">
@@ -15886,17 +16062,20 @@
       <c r="AB53" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AC53" s="133" t="b">
+      <c r="AC53" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD53" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AD53" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE53" s="64" t="s">
+      <c r="AE53" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF53" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="47.25" hidden="1">
+    <row r="54" spans="1:32" ht="47.25" hidden="1">
       <c r="A54" s="64" t="s">
         <v>345</v>
       </c>
@@ -15925,40 +16104,38 @@
       <c r="K54" s="67" t="s">
         <v>835</v>
       </c>
-      <c r="L54" s="65" t="s">
+      <c r="L54" s="67"/>
+      <c r="M54" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M54" s="123" t="s">
+      <c r="N54" s="123" t="s">
         <v>535</v>
       </c>
-      <c r="N54" s="111" t="s">
+      <c r="O54" s="111" t="s">
         <v>536</v>
       </c>
-      <c r="O54" s="113" t="s">
+      <c r="P54" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="P54" s="113" t="s">
+      <c r="Q54" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="Q54" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R54" s="67" t="b">
+      <c r="R54" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S54" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S54" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T54" s="67" t="b">
+      <c r="T54" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U54" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U54" s="67" t="s">
+      <c r="V54" s="67" t="s">
         <v>537</v>
       </c>
-      <c r="V54" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W54" s="133" t="s">
+      <c r="W54" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X54" s="133" t="s">
@@ -15976,17 +16153,20 @@
       <c r="AB54" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AC54" s="133" t="b">
+      <c r="AC54" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD54" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AD54" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE54" s="64" t="s">
+      <c r="AE54" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF54" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="63" hidden="1">
+    <row r="55" spans="1:32" ht="63" hidden="1">
       <c r="A55" s="64" t="s">
         <v>345</v>
       </c>
@@ -16017,68 +16197,69 @@
       <c r="K55" s="67" t="s">
         <v>880</v>
       </c>
-      <c r="L55" s="65" t="s">
+      <c r="L55" s="67"/>
+      <c r="M55" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M55" s="123" t="s">
+      <c r="N55" s="123" t="s">
         <v>538</v>
       </c>
-      <c r="N55" s="109" t="s">
+      <c r="O55" s="109" t="s">
         <v>539</v>
-      </c>
-      <c r="O55" s="109" t="s">
-        <v>69</v>
       </c>
       <c r="P55" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="Q55" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R55" s="67" t="b">
+      <c r="Q55" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="R55" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S55" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S55" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T55" s="67" t="s">
+      <c r="T55" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U55" s="67" t="s">
         <v>540</v>
       </c>
-      <c r="U55" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V55" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W55" s="133" t="b">
+      <c r="W55" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="X55" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="X55" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="Y55" s="133" t="s">
         <v>22</v>
       </c>
       <c r="Z55" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AA55" s="133" t="b">
+      <c r="AA55" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB55" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AB55" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="AC55" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AD55" s="133" t="b">
+      <c r="AD55" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE55" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AE55" s="64" t="s">
+      <c r="AF55" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="47.25" hidden="1">
+    <row r="56" spans="1:32" ht="47.25" hidden="1">
       <c r="A56" s="64" t="s">
         <v>345</v>
       </c>
@@ -16109,40 +16290,38 @@
       <c r="K56" s="67" t="s">
         <v>888</v>
       </c>
-      <c r="L56" s="67" t="s">
+      <c r="L56" s="67"/>
+      <c r="M56" s="67" t="s">
         <v>878</v>
       </c>
-      <c r="M56" s="123" t="s">
+      <c r="N56" s="123" t="s">
         <v>541</v>
       </c>
-      <c r="N56" s="109" t="s">
+      <c r="O56" s="109" t="s">
         <v>542</v>
-      </c>
-      <c r="O56" s="109" t="s">
-        <v>69</v>
       </c>
       <c r="P56" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="Q56" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R56" s="67" t="b">
+      <c r="Q56" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="R56" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S56" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S56" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T56" s="67" t="b">
+      <c r="T56" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U56" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U56" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V56" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W56" s="133" t="s">
+      <c r="W56" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X56" s="133" t="s">
@@ -16154,23 +16333,26 @@
       <c r="Z56" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AA56" s="133" t="b">
+      <c r="AA56" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB56" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AB56" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="AC56" s="133" t="s">
         <v>22</v>
       </c>
       <c r="AD56" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE56" s="64" t="s">
+      <c r="AE56" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF56" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="63" hidden="1">
+    <row r="57" spans="1:32" ht="63" hidden="1">
       <c r="A57" s="64" t="s">
         <v>345</v>
       </c>
@@ -16201,40 +16383,38 @@
       <c r="K57" s="67" t="s">
         <v>877</v>
       </c>
-      <c r="L57" s="65" t="s">
+      <c r="L57" s="67"/>
+      <c r="M57" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M57" s="123" t="s">
+      <c r="N57" s="123" t="s">
         <v>543</v>
       </c>
-      <c r="N57" s="109" t="s">
+      <c r="O57" s="109" t="s">
         <v>544</v>
-      </c>
-      <c r="O57" s="109" t="s">
-        <v>69</v>
       </c>
       <c r="P57" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="Q57" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R57" s="67" t="b">
+      <c r="Q57" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="R57" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S57" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S57" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T57" s="67" t="b">
+      <c r="T57" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U57" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U57" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V57" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W57" s="133" t="s">
+      <c r="W57" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X57" s="133" t="s">
@@ -16246,23 +16426,26 @@
       <c r="Z57" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AA57" s="133" t="b">
+      <c r="AA57" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB57" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AB57" s="133" t="s">
-        <v>22</v>
-      </c>
       <c r="AC57" s="133" t="s">
         <v>22</v>
       </c>
       <c r="AD57" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE57" s="64" t="s">
+      <c r="AE57" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF57" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="47.25" hidden="1">
+    <row r="58" spans="1:32" ht="47.25" hidden="1">
       <c r="A58" s="64" t="s">
         <v>345</v>
       </c>
@@ -16293,40 +16476,38 @@
       <c r="K58" s="67" t="s">
         <v>876</v>
       </c>
-      <c r="L58" s="65" t="s">
+      <c r="L58" s="67"/>
+      <c r="M58" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M58" s="123" t="s">
+      <c r="N58" s="123" t="s">
         <v>314</v>
       </c>
-      <c r="N58" s="111" t="s">
+      <c r="O58" s="111" t="s">
         <v>545</v>
       </c>
-      <c r="O58" s="113" t="s">
+      <c r="P58" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="P58" s="113" t="s">
+      <c r="Q58" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="Q58" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R58" s="67" t="b">
+      <c r="R58" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S58" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="S58" s="67" t="s">
+      <c r="T58" s="67" t="s">
         <v>534</v>
       </c>
-      <c r="T58" s="67" t="b">
+      <c r="U58" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U58" s="67" t="s">
+      <c r="V58" s="67" t="s">
         <v>546</v>
       </c>
-      <c r="V58" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W58" s="133" t="s">
+      <c r="W58" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X58" s="133" t="s">
@@ -16344,17 +16525,20 @@
       <c r="AB58" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AC58" s="133" t="b">
+      <c r="AC58" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD58" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AD58" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE58" s="64" t="s">
+      <c r="AE58" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF58" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="47.25" hidden="1">
+    <row r="59" spans="1:32" ht="47.25" hidden="1">
       <c r="A59" s="64" t="s">
         <v>345</v>
       </c>
@@ -16385,40 +16569,38 @@
       <c r="K59" s="67" t="s">
         <v>879</v>
       </c>
-      <c r="L59" s="65" t="s">
+      <c r="L59" s="67"/>
+      <c r="M59" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M59" s="123" t="s">
+      <c r="N59" s="123" t="s">
         <v>312</v>
       </c>
-      <c r="N59" s="111" t="s">
+      <c r="O59" s="111" t="s">
         <v>547</v>
       </c>
-      <c r="O59" s="113" t="s">
+      <c r="P59" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="P59" s="113" t="s">
+      <c r="Q59" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="Q59" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R59" s="67" t="b">
+      <c r="R59" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S59" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S59" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T59" s="67" t="b">
+      <c r="T59" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U59" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U59" s="67" t="s">
+      <c r="V59" s="67" t="s">
         <v>546</v>
       </c>
-      <c r="V59" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W59" s="133" t="s">
+      <c r="W59" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X59" s="133" t="s">
@@ -16436,17 +16618,20 @@
       <c r="AB59" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AC59" s="133" t="b">
+      <c r="AC59" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD59" s="133" t="b">
         <v>1</v>
       </c>
-      <c r="AD59" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE59" s="64" t="s">
+      <c r="AE59" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF59" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="78.75" hidden="1">
+    <row r="60" spans="1:32" ht="78.75" hidden="1">
       <c r="A60" s="64" t="s">
         <v>345</v>
       </c>
@@ -16477,40 +16662,38 @@
       <c r="K60" s="67" t="s">
         <v>869</v>
       </c>
-      <c r="L60" s="65" t="s">
+      <c r="L60" s="67"/>
+      <c r="M60" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M60" s="123" t="s">
+      <c r="N60" s="123" t="s">
         <v>548</v>
       </c>
-      <c r="N60" s="111" t="s">
+      <c r="O60" s="111" t="s">
         <v>549</v>
       </c>
-      <c r="O60" s="113" t="s">
+      <c r="P60" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="P60" s="113" t="s">
+      <c r="Q60" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="Q60" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R60" s="67" t="b">
+      <c r="R60" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S60" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S60" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T60" s="67" t="b">
+      <c r="T60" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U60" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U60" s="67" t="s">
+      <c r="V60" s="67" t="s">
         <v>546</v>
       </c>
-      <c r="V60" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W60" s="137" t="s">
+      <c r="W60" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X60" s="137" t="s">
@@ -16528,17 +16711,20 @@
       <c r="AB60" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="AC60" s="137" t="b">
+      <c r="AC60" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD60" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AD60" s="137" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE60" s="64" t="s">
+      <c r="AE60" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF60" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="47.25" hidden="1">
+    <row r="61" spans="1:32" ht="47.25" hidden="1">
       <c r="A61" s="64" t="s">
         <v>345</v>
       </c>
@@ -16569,38 +16755,36 @@
       <c r="K61" s="67" t="s">
         <v>870</v>
       </c>
-      <c r="L61" s="65" t="s">
+      <c r="L61" s="67"/>
+      <c r="M61" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M61" s="123" t="s">
+      <c r="N61" s="123" t="s">
         <v>535</v>
       </c>
-      <c r="N61" s="111" t="s">
+      <c r="O61" s="111" t="s">
         <v>536</v>
       </c>
-      <c r="O61" s="113" t="s">
+      <c r="P61" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="P61" s="113" t="s">
+      <c r="Q61" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="Q61" s="65"/>
-      <c r="R61" s="67" t="b">
+      <c r="R61" s="65"/>
+      <c r="S61" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S61" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T61" s="67" t="b">
+      <c r="T61" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U61" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U61" s="67" t="s">
+      <c r="V61" s="67" t="s">
         <v>537</v>
       </c>
-      <c r="V61" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W61" s="137" t="s">
+      <c r="W61" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X61" s="137" t="s">
@@ -16618,17 +16802,20 @@
       <c r="AB61" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="AC61" s="137" t="b">
+      <c r="AC61" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD61" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AD61" s="137" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE61" s="64" t="s">
+      <c r="AE61" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF61" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="63" hidden="1">
+    <row r="62" spans="1:32" ht="63" hidden="1">
       <c r="A62" s="64" t="s">
         <v>345</v>
       </c>
@@ -16659,40 +16846,38 @@
       <c r="K62" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="L62" s="65" t="s">
+      <c r="L62" s="67"/>
+      <c r="M62" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="M62" s="123" t="s">
+      <c r="N62" s="123" t="s">
         <v>550</v>
       </c>
-      <c r="N62" s="111" t="s">
+      <c r="O62" s="111" t="s">
         <v>551</v>
       </c>
-      <c r="O62" s="113" t="s">
+      <c r="P62" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="P62" s="113" t="s">
+      <c r="Q62" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="Q62" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R62" s="67" t="b">
+      <c r="R62" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S62" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S62" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T62" s="67" t="b">
+      <c r="T62" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U62" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="U62" s="67" t="s">
+      <c r="V62" s="67" t="s">
         <v>552</v>
       </c>
-      <c r="V62" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="W62" s="137" t="s">
+      <c r="W62" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X62" s="137" t="s">
@@ -16710,17 +16895,20 @@
       <c r="AB62" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="AC62" s="137" t="b">
+      <c r="AC62" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD62" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AD62" s="137" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE62" s="64" t="s">
+      <c r="AE62" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF62" s="64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="47.25" hidden="1">
+    <row r="63" spans="1:32" ht="47.25" hidden="1">
       <c r="A63" s="64" t="s">
         <v>345</v>
       </c>
@@ -16751,40 +16939,38 @@
       <c r="K63" s="67" t="s">
         <v>875</v>
       </c>
-      <c r="L63" s="65" t="s">
+      <c r="L63" s="67"/>
+      <c r="M63" s="65" t="s">
         <v>874</v>
       </c>
-      <c r="M63" s="123" t="s">
+      <c r="N63" s="123" t="s">
         <v>553</v>
       </c>
-      <c r="N63" s="111" t="s">
+      <c r="O63" s="111" t="s">
         <v>554</v>
       </c>
-      <c r="O63" s="113" t="s">
+      <c r="P63" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="P63" s="113" t="s">
+      <c r="Q63" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="Q63" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R63" s="67" t="b">
+      <c r="R63" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S63" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="S63" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="T63" s="67" t="b">
+      <c r="T63" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="U63" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="U63" s="67" t="s">
-        <v>22</v>
-      </c>
       <c r="V63" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="W63" s="137" t="s">
+      <c r="W63" s="67" t="s">
         <v>22</v>
       </c>
       <c r="X63" s="137" t="s">
@@ -16802,24 +16988,27 @@
       <c r="AB63" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="AC63" s="137" t="b">
+      <c r="AC63" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD63" s="137" t="b">
         <v>1</v>
       </c>
-      <c r="AD63" s="137" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE63" s="64" t="s">
+      <c r="AE63" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF63" s="64" t="s">
         <v>345</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE63" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <autoFilter ref="A1:AF63" xr:uid="{00000000-0001-0000-0600-000000000000}">
     <filterColumn colId="8">
       <filters>
         <filter val="TRUE-PRI1"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE63">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF63">
       <sortCondition ref="B1:B63"/>
     </sortState>
   </autoFilter>
@@ -16836,111 +17025,111 @@
       <formula>"TRUE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:H63 M1:M63 D46:D53 I48:J48 I50:J53">
+  <conditionalFormatting sqref="F1:H63 N1:N63 D46:D53 I48:J48 I50:J53">
     <cfRule type="cellIs" dxfId="67" priority="12" operator="equal">
       <formula>"TRUE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:V2 K1:M63 O1:O63 AE1:AE63 T3:V48 P3:S63 N45:AD45 I48:J48 V49:V63 I50:J53 T51:U63">
+  <conditionalFormatting sqref="Q1:W2 P1:P63 AF1:AF63 U3:W48 Q3:T63 O45:AE45 I48:J48 W49:W63 I50:J53 U51:V63 K1:N63">
     <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R63 T3:T1048576">
+  <conditionalFormatting sqref="S3:S63 U3:U1048576">
     <cfRule type="containsText" dxfId="65" priority="33" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",R3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",S3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="64" priority="34" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",R3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",S3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6">
+  <conditionalFormatting sqref="S6">
     <cfRule type="containsText" dxfId="63" priority="29" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",R6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",S6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="62" priority="30" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",R6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",S6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8">
+  <conditionalFormatting sqref="S8">
     <cfRule type="containsText" dxfId="61" priority="31" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",R8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",S8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="60" priority="32" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",R8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",S8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R15:R16">
+  <conditionalFormatting sqref="S15:S16">
     <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",R15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",S15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="58" priority="16" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",R15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",S15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R24:R27">
+  <conditionalFormatting sqref="S24:S27">
     <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",R24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",S24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",R24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",S24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R36:R38">
+  <conditionalFormatting sqref="S36:S38">
     <cfRule type="containsText" dxfId="55" priority="17" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",R36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",S36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="54" priority="18" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",R36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",S36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R44:R47">
+  <conditionalFormatting sqref="S44:S47">
     <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",R44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",S44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="52" priority="20" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",R44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",S44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R49:R52">
+  <conditionalFormatting sqref="S49:S52">
     <cfRule type="containsText" dxfId="51" priority="21" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",R49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",S49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="50" priority="22" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",R49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",S49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R54">
+  <conditionalFormatting sqref="S54">
     <cfRule type="containsText" dxfId="49" priority="23" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",R54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",S54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="24" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",R54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",S54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R59">
+  <conditionalFormatting sqref="S59">
     <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",R59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",S59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="46" priority="26" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",R59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",S59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",R59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",S59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="44" priority="28" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",R59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",S59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1">
+  <conditionalFormatting sqref="U1">
     <cfRule type="containsText" dxfId="43" priority="35" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",T1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FALSE",U1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="36" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",T1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("TRUE",U1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T49:T51 W60:AD63">
+  <conditionalFormatting sqref="U49:U51 X60:AE63">
     <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
       <formula>"-"</formula>
     </cfRule>

--- a/notebooks/Questions_2024-05-31.xlsx
+++ b/notebooks/Questions_2024-05-31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABMI_Official\RCDST_Jupyter_webapp_Official\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11222AF6-15FF-408A-90BD-9AC6F7F20FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBC5A9B-8C61-43CD-81D4-8886DAEC4081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="825" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11166,9 +11166,9 @@
   </sheetPr>
   <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -17030,7 +17030,7 @@
       <formula>"TRUE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:W2 P1:P63 AF1:AF63 U3:W48 Q3:T63 O45:AE45 I48:J48 W49:W63 I50:J53 U51:V63 K1:N63">
+  <conditionalFormatting sqref="Q1:W2 K1:N63 P1:P63 AF1:AF63 U3:W48 Q3:T63 O45:AE45 I48:J48 W49:W63 I50:J53 U51:V63">
     <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
       <formula>"-"</formula>
     </cfRule>

--- a/notebooks/Questions_2024-05-31.xlsx
+++ b/notebooks/Questions_2024-05-31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABMI_Official\RCDST_Jupyter_webapp_Official\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBC5A9B-8C61-43CD-81D4-8886DAEC4081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29E19B6-5739-4C44-BBB0-872497316D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="825" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11166,9 +11166,9 @@
   </sheetPr>
   <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>

--- a/notebooks/Questions_2024-05-31.xlsx
+++ b/notebooks/Questions_2024-05-31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABMI_Official\RCDST_Jupyter_webapp_Official\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29E19B6-5739-4C44-BBB0-872497316D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C893936C-6AE0-404A-A85E-8E1679035685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="825" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11166,9 +11166,9 @@
   </sheetPr>
   <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>

--- a/notebooks/Questions_2024-05-31.xlsx
+++ b/notebooks/Questions_2024-05-31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABMI_Official\RCDST_Jupyter_webapp_Official\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C893936C-6AE0-404A-A85E-8E1679035685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9233ABFC-EE55-4168-98AB-C1B31FA69030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="825" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2747,10 +2747,6 @@
     <t>Is there a maximum number of months you can sample? If so, how many?</t>
   </si>
   <si>
-    <t xml:space="preserve">surv_dur_mth_min
-</t>
-  </si>
-  <si>
     <t>TRUE, FALSE, NA</t>
   </si>
   <si>
@@ -2889,6 +2885,10 @@
         "obj_inventory"
     ]
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surv_dur_mth_min
+</t>
   </si>
 </sst>
 </file>
@@ -11166,9 +11166,9 @@
   </sheetPr>
   <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -11189,7 +11189,7 @@
     <col min="15" max="15" width="40.140625" style="92" customWidth="1"/>
     <col min="16" max="16" width="48.28515625" style="92" customWidth="1"/>
     <col min="17" max="17" width="47" style="92" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="31.5703125" customWidth="1"/>
     <col min="19" max="19" width="19.140625" customWidth="1"/>
     <col min="20" max="20" width="23.5703125" customWidth="1"/>
     <col min="21" max="21" width="11" customWidth="1"/>
@@ -11203,7 +11203,7 @@
         <v>345</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C1" s="140" t="s">
         <v>847</v>
@@ -11227,13 +11227,13 @@
         <v>825</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K1" s="61" t="s">
         <v>824</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M1" s="145" t="s">
         <v>839</v>
@@ -11402,7 +11402,7 @@
         <v>348</v>
       </c>
       <c r="I3" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J3" s="154" t="s">
         <v>348</v>
@@ -11497,10 +11497,10 @@
         <v>357</v>
       </c>
       <c r="I4" s="154" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K4" s="67" t="s">
         <v>844</v>
@@ -11515,7 +11515,7 @@
         <v>356</v>
       </c>
       <c r="O4" s="110" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="P4" s="109" t="s">
         <v>358</v>
@@ -11594,10 +11594,10 @@
         <v>362</v>
       </c>
       <c r="I5" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J5" s="154" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K5" s="67" t="s">
         <v>844</v>
@@ -11612,7 +11612,7 @@
         <v>361</v>
       </c>
       <c r="O5" s="151" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="P5" s="109" t="s">
         <v>69</v>
@@ -11696,7 +11696,7 @@
         <v>844</v>
       </c>
       <c r="L6" s="67" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M6" s="65" t="s">
         <v>844</v>
@@ -11782,7 +11782,7 @@
         <v>357</v>
       </c>
       <c r="I7" s="135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J7" s="135"/>
       <c r="K7" s="67" t="s">
@@ -11873,14 +11873,14 @@
         <v>357</v>
       </c>
       <c r="I8" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J8" s="146"/>
       <c r="K8" s="67" t="s">
+        <v>895</v>
+      </c>
+      <c r="L8" s="67" t="s">
         <v>896</v>
-      </c>
-      <c r="L8" s="67" t="s">
-        <v>897</v>
       </c>
       <c r="M8" s="65" t="s">
         <v>844</v>
@@ -11968,14 +11968,14 @@
         <v>362</v>
       </c>
       <c r="I9" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J9" s="146"/>
       <c r="K9" s="67" t="s">
+        <v>895</v>
+      </c>
+      <c r="L9" s="67" t="s">
         <v>896</v>
-      </c>
-      <c r="L9" s="67" t="s">
-        <v>897</v>
       </c>
       <c r="M9" s="65" t="s">
         <v>844</v>
@@ -12061,7 +12061,7 @@
         <v>357</v>
       </c>
       <c r="I10" s="135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J10" s="135"/>
       <c r="K10" s="67" t="s">
@@ -12149,10 +12149,10 @@
         <v>861</v>
       </c>
       <c r="H11" s="127" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I11" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J11" s="154"/>
       <c r="K11" s="127" t="s">
@@ -12165,13 +12165,13 @@
         <v>844</v>
       </c>
       <c r="N11" s="129" t="s">
-        <v>883</v>
+        <v>907</v>
       </c>
       <c r="O11" s="139" t="s">
         <v>881</v>
       </c>
       <c r="P11" s="127" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Q11" s="127" t="s">
         <v>359</v>
@@ -12240,10 +12240,10 @@
         <v>861</v>
       </c>
       <c r="H12" s="127" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I12" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J12" s="154"/>
       <c r="K12" s="127" t="s">
@@ -12262,7 +12262,7 @@
         <v>882</v>
       </c>
       <c r="P12" s="127" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Q12" s="127" t="s">
         <v>359</v>
@@ -12345,7 +12345,7 @@
         <v>828</v>
       </c>
       <c r="L13" s="67" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M13" s="65" t="s">
         <v>844</v>
@@ -12431,14 +12431,14 @@
         <v>348</v>
       </c>
       <c r="I14" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J14" s="146"/>
       <c r="K14" s="67" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L14" s="67" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M14" s="65" t="s">
         <v>844</v>
@@ -12615,7 +12615,7 @@
         <v>348</v>
       </c>
       <c r="I16" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J16" s="146"/>
       <c r="K16" s="67" t="s">
@@ -12708,14 +12708,14 @@
         <v>348</v>
       </c>
       <c r="I17" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J17" s="146"/>
       <c r="K17" s="67" t="s">
         <v>838</v>
       </c>
       <c r="L17" s="67" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M17" s="65" t="s">
         <v>844</v>
@@ -12801,7 +12801,7 @@
         <v>348</v>
       </c>
       <c r="I18" s="135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J18" s="135"/>
       <c r="K18" s="67" t="s">
@@ -12892,7 +12892,7 @@
         <v>348</v>
       </c>
       <c r="I19" s="135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J19" s="135"/>
       <c r="K19" s="72" t="s">
@@ -12983,14 +12983,14 @@
         <v>348</v>
       </c>
       <c r="I20" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J20" s="146"/>
       <c r="K20" s="67" t="s">
         <v>840</v>
       </c>
       <c r="L20" s="67" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M20" s="65" t="s">
         <v>844</v>
@@ -13053,7 +13053,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="31.5">
+    <row r="21" spans="1:32" ht="32.25" customHeight="1">
       <c r="A21" s="64"/>
       <c r="B21" s="65">
         <v>17</v>
@@ -13074,7 +13074,7 @@
         <v>425</v>
       </c>
       <c r="I21" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J21" s="154" t="s">
         <v>425</v>
@@ -13162,14 +13162,14 @@
         <v>348</v>
       </c>
       <c r="I22" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J22" s="146"/>
       <c r="K22" s="67" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L22" s="67" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="M22" s="65" t="s">
         <v>844</v>
@@ -13255,14 +13255,14 @@
         <v>348</v>
       </c>
       <c r="I23" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J23" s="146"/>
       <c r="K23" s="67" t="s">
         <v>837</v>
       </c>
       <c r="L23" s="67" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M23" s="65" t="s">
         <v>844</v>
@@ -13348,14 +13348,14 @@
         <v>348</v>
       </c>
       <c r="I24" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J24" s="146"/>
       <c r="K24" s="67" t="s">
         <v>841</v>
       </c>
       <c r="L24" s="67" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M24" s="65" t="s">
         <v>844</v>
@@ -13441,14 +13441,14 @@
         <v>348</v>
       </c>
       <c r="I25" s="146" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J25" s="146"/>
       <c r="K25" s="67" t="s">
         <v>872</v>
       </c>
       <c r="L25" s="67" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M25" s="65" t="s">
         <v>844</v>
@@ -13716,7 +13716,7 @@
         <v>348</v>
       </c>
       <c r="I28" s="135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J28" s="135"/>
       <c r="K28" s="67" t="s">
@@ -13807,7 +13807,7 @@
         <v>348</v>
       </c>
       <c r="I29" s="135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J29" s="135"/>
       <c r="K29" s="67" t="s">
@@ -13898,7 +13898,7 @@
         <v>357</v>
       </c>
       <c r="I30" s="135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J30" s="135"/>
       <c r="K30" s="67" t="s">
@@ -13987,7 +13987,7 @@
         <v>348</v>
       </c>
       <c r="I31" s="135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J31" s="135"/>
       <c r="K31" s="67" t="s">
@@ -14078,7 +14078,7 @@
         <v>357</v>
       </c>
       <c r="I32" s="135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J32" s="135"/>
       <c r="K32" s="67" t="s">
@@ -14169,7 +14169,7 @@
         <v>348</v>
       </c>
       <c r="I33" s="135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J33" s="135"/>
       <c r="K33" s="67" t="s">
@@ -14260,7 +14260,7 @@
         <v>357</v>
       </c>
       <c r="I34" s="135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J34" s="135"/>
       <c r="K34" s="67" t="s">
@@ -14351,7 +14351,7 @@
         <v>357</v>
       </c>
       <c r="I35" s="135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J35" s="135"/>
       <c r="K35" s="67" t="s">
@@ -15457,11 +15457,11 @@
         <v>357</v>
       </c>
       <c r="I47" s="135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J47" s="135"/>
       <c r="K47" s="67" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="L47" s="67"/>
       <c r="M47" s="67" t="s">
@@ -15912,7 +15912,7 @@
         <v>357</v>
       </c>
       <c r="I52" s="150" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J52" s="155" t="s">
         <v>357</v>
@@ -15921,7 +15921,7 @@
         <v>833</v>
       </c>
       <c r="L52" s="67" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M52" s="65" t="s">
         <v>844</v>
@@ -16007,7 +16007,7 @@
         <v>357</v>
       </c>
       <c r="I53" s="149" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J53" s="149"/>
       <c r="K53" s="67" t="s">
@@ -16098,7 +16098,7 @@
         <v>357</v>
       </c>
       <c r="I54" s="135" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J54" s="135"/>
       <c r="K54" s="67" t="s">
@@ -16288,7 +16288,7 @@
       </c>
       <c r="J56" s="116"/>
       <c r="K56" s="67" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L56" s="67"/>
       <c r="M56" s="67" t="s">

--- a/notebooks/Questions_2024-05-31.xlsx
+++ b/notebooks/Questions_2024-05-31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABMI_Official\RCDST_Jupyter_webapp_Official\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9233ABFC-EE55-4168-98AB-C1B31FA69030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6230A6-354B-4EA1-A74D-623670F13BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="825" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11166,9 +11166,9 @@
   </sheetPr>
   <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>

--- a/notebooks/Questions_2024-05-31.xlsx
+++ b/notebooks/Questions_2024-05-31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABMI_Official\RCDST_Jupyter_webapp_Official\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6230A6-354B-4EA1-A74D-623670F13BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE1AAE5-CCC4-4324-B651-D5E2255C5EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="825" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11166,9 +11166,9 @@
   </sheetPr>
   <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>

--- a/notebooks/Questions_2024-05-31.xlsx
+++ b/notebooks/Questions_2024-05-31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABMI_Official\RCDST_Jupyter_webapp_Official\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE1AAE5-CCC4-4324-B651-D5E2255C5EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E4AE10-1C76-4D37-89EE-EE995B8712E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="825" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11166,9 +11166,9 @@
   </sheetPr>
   <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
